--- a/data/hotels_by_city/Houston/Houston_shard_582.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_582.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7355288-Reviews-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Springhill-Suites-By-Marriott-Houston-DwntnConvention-Cntr.h9312532.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1469 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r598062376-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7355288</t>
+  </si>
+  <si>
+    <t>598062376</t>
+  </si>
+  <si>
+    <t>07/20/2018</t>
+  </si>
+  <si>
+    <t>Great location and interesting building</t>
+  </si>
+  <si>
+    <t>As Downtown Houston comes back to life this hotel is in a nice spot to enjoy it all.  You're close to the Dynamo's stadium and the Astros' stadium, plus House of Blues is close by and the Theater District is just a short train ride away.  While this is in the historic Humble Oil Building, the hotel is very modern.  The suites are big enough, modern and very clean and comfortable.  The included breakfast is great and featured eggs, sausage and potatoes when we stayed along with all of the regular breakfast items. Marriott has two other hotels in the same building, so that can be a little confusing, and you share the pool.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>As Downtown Houston comes back to life this hotel is in a nice spot to enjoy it all.  You're close to the Dynamo's stadium and the Astros' stadium, plus House of Blues is close by and the Theater District is just a short train ride away.  While this is in the historic Humble Oil Building, the hotel is very modern.  The suites are big enough, modern and very clean and comfortable.  The included breakfast is great and featured eggs, sausage and potatoes when we stayed along with all of the regular breakfast items. Marriott has two other hotels in the same building, so that can be a little confusing, and you share the pool.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r597166733-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597166733</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Enjoyable stay</t>
+  </si>
+  <si>
+    <t>I stayed at the SpringHill Suites Houston Downtown/Convention Center July 7-12, 2018 for a Conference. The SpringHill Suites, the Courtyard Marriott and the Residence Inn Marriott are ALL in the same building. I did not know this when I booked.  You do not have to make  a decision between these 3 hotels based on location. The hotel was clean, comfort and convenient. The Hotel staff  members were professional, knowledgable and helpful. The hotel was roughly a 10 minute walk to the Convention Center (straight down the street you can't get loss). There is a Starbucks in the lobby and several restaurants in walking distances. Although, I did not have breakfast during my stay several guest seem to enjoy it.Because the Courtyard Marriott is connected we enjoyed Happy Hour there a couple of times. I took the SuperShuttle to the hotel from IAH and it was $21. Apparently an Uber is approximately $30. I would recommend this hotel if you have a conference at the Convention Center. The price, convenience  and service can't be beat.MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>I stayed at the SpringHill Suites Houston Downtown/Convention Center July 7-12, 2018 for a Conference. The SpringHill Suites, the Courtyard Marriott and the Residence Inn Marriott are ALL in the same building. I did not know this when I booked.  You do not have to make  a decision between these 3 hotels based on location. The hotel was clean, comfort and convenient. The Hotel staff  members were professional, knowledgable and helpful. The hotel was roughly a 10 minute walk to the Convention Center (straight down the street you can't get loss). There is a Starbucks in the lobby and several restaurants in walking distances. Although, I did not have breakfast during my stay several guest seem to enjoy it.Because the Courtyard Marriott is connected we enjoyed Happy Hour there a couple of times. I took the SuperShuttle to the hotel from IAH and it was $21. Apparently an Uber is approximately $30. I would recommend this hotel if you have a conference at the Convention Center. The price, convenience  and service can't be beat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r591847934-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591847934</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t>Great hotel and staff!</t>
+  </si>
+  <si>
+    <t>Stayed here for a meeting at the convention center in June.  The hotel is inter connected to a courtyard and residence inn which is Handy if you want to use a courtyard restaurant.  There's a Starbucks just outside the door and it works nicely to grab and go.  The convention center is a short walk up the street or a quick Uber.  I didn't mind the walk.  Staff were all great and rooms were comfortable and modern - Not run down.  Breakfast is a standard Marriott breakfast so it's good.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed here for a meeting at the convention center in June.  The hotel is inter connected to a courtyard and residence inn which is Handy if you want to use a courtyard restaurant.  There's a Starbucks just outside the door and it works nicely to grab and go.  The convention center is a short walk up the street or a quick Uber.  I didn't mind the walk.  Staff were all great and rooms were comfortable and modern - Not run down.  Breakfast is a standard Marriott breakfast so it's good.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r580327424-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580327424</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Good location, Clean Hotel.</t>
+  </si>
+  <si>
+    <t>The Hotel was very well maintained. The staff were friendly at Check-in. Rooms were spacious and the bed was comfy. The reason why this is not a 5/5 rating is because I thought I booked a Studio room with 2 queen beds, but on arrival it was a king bed with a Sofa bed. This wasn't ideal so we went back to reception to see if we could get the 2 queen beds I thought I had booked, but this wasn't possible. Other than that, the Hotel is in a good location and walking distance from a lot stuff to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The Hotel was very well maintained. The staff were friendly at Check-in. Rooms were spacious and the bed was comfy. The reason why this is not a 5/5 rating is because I thought I booked a Studio room with 2 queen beds, but on arrival it was a king bed with a Sofa bed. This wasn't ideal so we went back to reception to see if we could get the 2 queen beds I thought I had booked, but this wasn't possible. Other than that, the Hotel is in a good location and walking distance from a lot stuff to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r578804713-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578804713</t>
+  </si>
+  <si>
+    <t>05/08/2018</t>
+  </si>
+  <si>
+    <t>Nice stay for local out of towner</t>
+  </si>
+  <si>
+    <t>We live forty miles away and like to stay downtown when we see a show or game.  This time we had tickets to Astros ($6 Uber) and ate at Shula's.  Location couldn't have been better.  Parking was convenient ($30), room was clean, staff was friendly and breakfast was a pleasant experience.  All in all, a great value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r574638458-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>574638458</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Conference Family</t>
+  </si>
+  <si>
+    <t>Cannot say enough about Millicent and Ali Khan!Had a large booking for our group and Ali detangled the whole thing!Millacent was lovely and incredibly helpful while we were at the hotel!Three cheers!Also Miss Maggie of the Courtyard!!</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r555740647-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555740647</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was really nice. The rooms were spacious and we'll lit. It is located in a very congested area which I feel made it safe. There were restaurants and activities within walking distance. This is a highly suggested hotel for family.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r555162616-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555162616</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Love it here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked in on a Thursday afternoon to attend the pool and spa show at the convention center. This place is a easy fast walk there. This is the quietest Motel I've ever stayed at. Never heard any other guest slamming doors walking around above us or TV noise. Rooms were spotless clean in the staff was very friendly and helpful. Like all places downtown they have valet parking was probably the cheapest in the area. If your staying in downtown Houston for any reason. Don't hesitate to book a stay here. 5 start across the board. I attached a pic from the room and one from the street below. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r554221976-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554221976</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Chevron Mararhon</t>
+  </si>
+  <si>
+    <t>Running the Chevron Marathon and wanted to stay close to the start and finish lines. Perfect location. We were able to check in  little early. As we checked in, I inquired about a late check-out since I was running the marathon. Hotel was one of the select marathon hotels, so they were allowing late check-outs and gave me the option all the way to 4 pm.Also the hotel was providing the runners with a grab an go breakfast bag starting at 5 am and a full breakfast at 6 am. Rooms were large and quite comfortable. I was extremely happy with the hotel. As a Marriott Gold Member, I was surprised this was only a Category 3 hotel. I would rate at higher at perhaps a 4 or 5 CAT.MoreShow less</t>
+  </si>
+  <si>
+    <t>Running the Chevron Marathon and wanted to stay close to the start and finish lines. Perfect location. We were able to check in  little early. As we checked in, I inquired about a late check-out since I was running the marathon. Hotel was one of the select marathon hotels, so they were allowing late check-outs and gave me the option all the way to 4 pm.Also the hotel was providing the runners with a grab an go breakfast bag starting at 5 am and a full breakfast at 6 am. Rooms were large and quite comfortable. I was extremely happy with the hotel. As a Marriott Gold Member, I was surprised this was only a Category 3 hotel. I would rate at higher at perhaps a 4 or 5 CAT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r543578343-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543578343</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Good area to be in</t>
+  </si>
+  <si>
+    <t>We had a fairly good room here, but the whole experince was ok not as good as other places we stayed on our trip. The check in was slow, and the girl didn't seem to know what she was doing . Oir room was good , no complaints here. The breakfast was poor. Alot of plastic and disposible cutlery and plates. The hotel made out it was green and you could get points by not having your room made up, but the amount of waste in the breakfast room was too much for me. Also the quality of the food at breakfast was not as good as in other hotels we stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Amy B, Front Office Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2017</t>
+  </si>
+  <si>
+    <t>We had a fairly good room here, but the whole experince was ok not as good as other places we stayed on our trip. The check in was slow, and the girl didn't seem to know what she was doing . Oir room was good , no complaints here. The breakfast was poor. Alot of plastic and disposible cutlery and plates. The hotel made out it was green and you could get points by not having your room made up, but the amount of waste in the breakfast room was too much for me. Also the quality of the food at breakfast was not as good as in other hotels we stayed in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r543455698-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543455698</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Good location Clean rooms</t>
+  </si>
+  <si>
+    <t>Stayed here at the start of our holiday. Enjoyed the location.  Rooms - particularly bathroom very clean.  Breakfast was very good.  Loads of fresh fruit and healthy options. The ‘throw away plates’ etc always scare me but that seems to be the norm here.  We did try doing some laundry but both machines were broken.  I think the coin trays probably needed emptying because the only fault was in the loading coins.  Very little else goes wrong with those Maytags.  Overall a great experience.  MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 28, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here at the start of our holiday. Enjoyed the location.  Rooms - particularly bathroom very clean.  Breakfast was very good.  Loads of fresh fruit and healthy options. The ‘throw away plates’ etc always scare me but that seems to be the norm here.  We did try doing some laundry but both machines were broken.  I think the coin trays probably needed emptying because the only fault was in the loading coins.  Very little else goes wrong with those Maytags.  Overall a great experience.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r539718204-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539718204</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Mixed review</t>
+  </si>
+  <si>
+    <t>Since this is an old office building re-purposed as a hotel each room is different.  I was there for the Houston quilt show and had to move here because my original hotel was flooded by the hurricane.  
+Location was great right on the bus line to/from the convention center but I had driven to the hotel and the parking is only valet. The extra I had to spend on the room and the extra for the valet really added up for a 4 night stay.  
+As a gold member I had hoped to get an upgrade but they were sold out and couldn't move rooms. I hate being near the elevator and my room shared a wall with the elevator so the noise up/down was bothersome.  
+Breakfast was nicely done and they did a good job of keeping up with the rush.  
+Room got warm at night even with the temperature turned down. Guess like a lot of hotels the motion detector thinks no one is in and turns off.  I really hate that feature.  This was October but it get stuffy in a room where you can't open the windows.
+I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard...Since this is an old office building re-purposed as a hotel each room is different.  I was there for the Houston quilt show and had to move here because my original hotel was flooded by the hurricane.  Location was great right on the bus line to/from the convention center but I had driven to the hotel and the parking is only valet. The extra I had to spend on the room and the extra for the valet really added up for a 4 night stay.  As a gold member I had hoped to get an upgrade but they were sold out and couldn't move rooms. I hate being near the elevator and my room shared a wall with the elevator so the noise up/down was bothersome.  Breakfast was nicely done and they did a good job of keeping up with the rush.  Room got warm at night even with the temperature turned down. Guess like a lot of hotels the motion detector thinks no one is in and turns off.  I really hate that feature.  This was October but it get stuffy in a room where you can't open the windows.I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard way. First time out of the shower I slipped a bit but caught myself on the sink.  I put down extra towels after that.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Since this is an old office building re-purposed as a hotel each room is different.  I was there for the Houston quilt show and had to move here because my original hotel was flooded by the hurricane.  
+Location was great right on the bus line to/from the convention center but I had driven to the hotel and the parking is only valet. The extra I had to spend on the room and the extra for the valet really added up for a 4 night stay.  
+As a gold member I had hoped to get an upgrade but they were sold out and couldn't move rooms. I hate being near the elevator and my room shared a wall with the elevator so the noise up/down was bothersome.  
+Breakfast was nicely done and they did a good job of keeping up with the rush.  
+Room got warm at night even with the temperature turned down. Guess like a lot of hotels the motion detector thinks no one is in and turns off.  I really hate that feature.  This was October but it get stuffy in a room where you can't open the windows.
+I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard...Since this is an old office building re-purposed as a hotel each room is different.  I was there for the Houston quilt show and had to move here because my original hotel was flooded by the hurricane.  Location was great right on the bus line to/from the convention center but I had driven to the hotel and the parking is only valet. The extra I had to spend on the room and the extra for the valet really added up for a 4 night stay.  As a gold member I had hoped to get an upgrade but they were sold out and couldn't move rooms. I hate being near the elevator and my room shared a wall with the elevator so the noise up/down was bothersome.  Breakfast was nicely done and they did a good job of keeping up with the rush.  Room got warm at night even with the temperature turned down. Guess like a lot of hotels the motion detector thinks no one is in and turns off.  I really hate that feature.  This was October but it get stuffy in a room where you can't open the windows.I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard way. First time out of the shower I slipped a bit but caught myself on the sink.  I put down extra towels after that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r536676610-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536676610</t>
+  </si>
+  <si>
+    <t>10/28/2017</t>
+  </si>
+  <si>
+    <t>Smelly Room, Loud Elevator Mechanism</t>
+  </si>
+  <si>
+    <t>If it were not for the two things above, I would have given this facility a 5 star rating.  Was on 16th floor.  They looked to be some remodeling on that floor, tarps were covering much of the hallways.  Turned left and left again to reach my room.  Opened the door, first impression, what is that smell.  Kind of sour smell. That over powered me, but got past that and found the room to be very large, nice, clean and comfortable.  Unfortunately, my room shared a wall with the elevator shaft.  Head the banging of the elevator mechanism most of the evening.  One disadvantage to having a top floor room next to elevator.  Staff were very kind and helpful. Breakfast and coffee were very good. Bed was extremely comfortable.  Living area, sleeping area and very nicely designed bathroom and shower.  I'll go back to this hotel, but not that room.  Was at the Breakbulk Conference downtown Houston.  Only about 6-8 block walk to convention center.  Only a few block away from very good restaurants.  Town shuts down early.  Try Guadalajara Mexican restaurant while there, you won't be disappointed, only a few blocks away.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amy B, Front Office Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded October 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2017</t>
+  </si>
+  <si>
+    <t>If it were not for the two things above, I would have given this facility a 5 star rating.  Was on 16th floor.  They looked to be some remodeling on that floor, tarps were covering much of the hallways.  Turned left and left again to reach my room.  Opened the door, first impression, what is that smell.  Kind of sour smell. That over powered me, but got past that and found the room to be very large, nice, clean and comfortable.  Unfortunately, my room shared a wall with the elevator shaft.  Head the banging of the elevator mechanism most of the evening.  One disadvantage to having a top floor room next to elevator.  Staff were very kind and helpful. Breakfast and coffee were very good. Bed was extremely comfortable.  Living area, sleeping area and very nicely designed bathroom and shower.  I'll go back to this hotel, but not that room.  Was at the Breakbulk Conference downtown Houston.  Only about 6-8 block walk to convention center.  Only a few block away from very good restaurants.  Town shuts down early.  Try Guadalajara Mexican restaurant while there, you won't be disappointed, only a few blocks away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r536400661-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536400661</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Convenient &amp; central - is it Green?</t>
+  </si>
+  <si>
+    <t>We have stayed in mainly Marriot hotels across Texas - this one was different. Perhaps for picky reasons we were a little disappointed. 1. The welcome was non existent - but in fairness there was an obviously difficult customer billing request being handled when we arrived which had I think had overwhelmed the reception beyond recovery. 2. The adequate breakfast was marred by being offered plastic bowls and cutlery. All around the hotel were notices encouraging guests to be green by opting out of the daily maid service, yet when we arrived at breakfast we could only use plastic bowls and cutlery with paper cups and plates. This is a first in any quality hotel we have used including B and B. The hotel appears to be pushing environmental responsibility onto the guest without taking due responsibility themself, which is very disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have stayed in mainly Marriot hotels across Texas - this one was different. Perhaps for picky reasons we were a little disappointed. 1. The welcome was non existent - but in fairness there was an obviously difficult customer billing request being handled when we arrived which had I think had overwhelmed the reception beyond recovery. 2. The adequate breakfast was marred by being offered plastic bowls and cutlery. All around the hotel were notices encouraging guests to be green by opting out of the daily maid service, yet when we arrived at breakfast we could only use plastic bowls and cutlery with paper cups and plates. This is a first in any quality hotel we have used including B and B. The hotel appears to be pushing environmental responsibility onto the guest without taking due responsibility themself, which is very disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r533531091-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533531091</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Astros win and so does the SpringHill Suites!</t>
+  </si>
+  <si>
+    <t>We came to see the Astros win on Saturday and to visit NASA on Sunday. Unfortunately a dead battery put a crimp in our plans. Fortunately, SpringHill Suites has a highly professional staff that goes over and beyond the call of duty. Kudos to General Manager Kim Stone-Gagnon for her undivided attention in making sure our vehicle was charged and our ride home was safe. Rarely does one find such efficiency.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>We came to see the Astros win on Saturday and to visit NASA on Sunday. Unfortunately a dead battery put a crimp in our plans. Fortunately, SpringHill Suites has a highly professional staff that goes over and beyond the call of duty. Kudos to General Manager Kim Stone-Gagnon for her undivided attention in making sure our vehicle was charged and our ride home was safe. Rarely does one find such efficiency.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r516464077-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516464077</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Great hotel if you don't need to use the valet service</t>
+  </si>
+  <si>
+    <t>We stayed here when moving my daughter for college. The desk staff were great, efficient, friendly, professional and accommodating. Our room was clean and comfortable with all the amenities we needed. The location is close to some good restaurants and pubs, an easy walk for several options.
+My only complaint was the valet staff. I encountered about 7 valets during my visit and only 1 of them was even remotely friendly or respectful. They rest were rude, condescending, dismissive and/or not even there. The day I checked out, I waited by the valet desk with my luggage for about 10 minutes with nobody in sight. I walked over to the garage entrance, empty. Coming back to the desk I noticed a service door ajar so I peeked in, there was the valet sitting there talking on his cell phone. He put the phone down and asked me what I wanted. I said that I needed my car because I had a flight to catch. He said to wait a minute and went back to talking on the phone. 5 minutes later he came out to get my valet ticket and then was another 10 minutes getting my car. By now there were 2 other people waiting. He seemed genuinely surprised when I didn't tip him. If I'm the only person waiting for a car from the valet, it should not take nearly 30 minutes.....especially if the garage is onsite. Luckily...We stayed here when moving my daughter for college. The desk staff were great, efficient, friendly, professional and accommodating. Our room was clean and comfortable with all the amenities we needed. The location is close to some good restaurants and pubs, an easy walk for several options.My only complaint was the valet staff. I encountered about 7 valets during my visit and only 1 of them was even remotely friendly or respectful. They rest were rude, condescending, dismissive and/or not even there. The day I checked out, I waited by the valet desk with my luggage for about 10 minutes with nobody in sight. I walked over to the garage entrance, empty. Coming back to the desk I noticed a service door ajar so I peeked in, there was the valet sitting there talking on his cell phone. He put the phone down and asked me what I wanted. I said that I needed my car because I had a flight to catch. He said to wait a minute and went back to talking on the phone. 5 minutes later he came out to get my valet ticket and then was another 10 minutes getting my car. By now there were 2 other people waiting. He seemed genuinely surprised when I didn't tip him. If I'm the only person waiting for a car from the valet, it should not take nearly 30 minutes.....especially if the garage is onsite. Luckily my flight was delayed, otherwise this could have caused me to miss it.The problems I encountered with the valet is the only reason I didn't give this hotel a 5 star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here when moving my daughter for college. The desk staff were great, efficient, friendly, professional and accommodating. Our room was clean and comfortable with all the amenities we needed. The location is close to some good restaurants and pubs, an easy walk for several options.
+My only complaint was the valet staff. I encountered about 7 valets during my visit and only 1 of them was even remotely friendly or respectful. They rest were rude, condescending, dismissive and/or not even there. The day I checked out, I waited by the valet desk with my luggage for about 10 minutes with nobody in sight. I walked over to the garage entrance, empty. Coming back to the desk I noticed a service door ajar so I peeked in, there was the valet sitting there talking on his cell phone. He put the phone down and asked me what I wanted. I said that I needed my car because I had a flight to catch. He said to wait a minute and went back to talking on the phone. 5 minutes later he came out to get my valet ticket and then was another 10 minutes getting my car. By now there were 2 other people waiting. He seemed genuinely surprised when I didn't tip him. If I'm the only person waiting for a car from the valet, it should not take nearly 30 minutes.....especially if the garage is onsite. Luckily...We stayed here when moving my daughter for college. The desk staff were great, efficient, friendly, professional and accommodating. Our room was clean and comfortable with all the amenities we needed. The location is close to some good restaurants and pubs, an easy walk for several options.My only complaint was the valet staff. I encountered about 7 valets during my visit and only 1 of them was even remotely friendly or respectful. They rest were rude, condescending, dismissive and/or not even there. The day I checked out, I waited by the valet desk with my luggage for about 10 minutes with nobody in sight. I walked over to the garage entrance, empty. Coming back to the desk I noticed a service door ajar so I peeked in, there was the valet sitting there talking on his cell phone. He put the phone down and asked me what I wanted. I said that I needed my car because I had a flight to catch. He said to wait a minute and went back to talking on the phone. 5 minutes later he came out to get my valet ticket and then was another 10 minutes getting my car. By now there were 2 other people waiting. He seemed genuinely surprised when I didn't tip him. If I'm the only person waiting for a car from the valet, it should not take nearly 30 minutes.....especially if the garage is onsite. Luckily my flight was delayed, otherwise this could have caused me to miss it.The problems I encountered with the valet is the only reason I didn't give this hotel a 5 star rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r515037313-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515037313</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Could be a lot better</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and professional. I had a room that one wall backed up to the elevator and the window was over Main street so I got to hear the train all the time. The free breakfast was great with all of the choices. The bed was like sleeping on a stone. It was hard and bumpy. Overall I will give them a 4 because the staff can only work with what they have.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and professional. I had a room that one wall backed up to the elevator and the window was over Main street so I got to hear the train all the time. The free breakfast was great with all of the choices. The bed was like sleeping on a stone. It was hard and bumpy. Overall I will give them a 4 because the staff can only work with what they have.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r512736238-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512736238</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great location and customer service</t>
+  </si>
+  <si>
+    <t>Great location near metro station and many great restaurants and shopping. Customer service was top-notch and Ms. Maurnese was absolutely wonderful! We appreciated the staff going out of their way to make our stay extraordinary. Will stay here again when in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Great location near metro station and many great restaurants and shopping. Customer service was top-notch and Ms. Maurnese was absolutely wonderful! We appreciated the staff going out of their way to make our stay extraordinary. Will stay here again when in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r509804894-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509804894</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>VERY FRIENDLY STAFF</t>
+  </si>
+  <si>
+    <t>My family and I spent the weekend in Houston and stayed at the Springhill Suites Downtown Houston and enjoyed every minute of it.The staff from the front door to the valet area was very courteous, friendly and greeted us with smiles each and every day.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2017</t>
+  </si>
+  <si>
+    <t>My family and I spent the weekend in Houston and stayed at the Springhill Suites Downtown Houston and enjoyed every minute of it.The staff from the front door to the valet area was very courteous, friendly and greeted us with smiles each and every day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r509799237-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509799237</t>
+  </si>
+  <si>
+    <t>Quick weekend trip</t>
+  </si>
+  <si>
+    <t>This was our second stay at this hotel. You can't really beat the location. When we visited for a football game, simply hop on the train for the trip to NRG stadium.  If you're going to a baseball game, it's a quick 20 minute walk to Minute Maid Park. My husband, son and I stayed in a King suite and had plenty of room for the three of us. Will probably stay here again on our next trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was our second stay at this hotel. You can't really beat the location. When we visited for a football game, simply hop on the train for the trip to NRG stadium.  If you're going to a baseball game, it's a quick 20 minute walk to Minute Maid Park. My husband, son and I stayed in a King suite and had plenty of room for the three of us. Will probably stay here again on our next trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r507440007-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507440007</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Clean Rooms &amp; Great Service</t>
+  </si>
+  <si>
+    <t>I stay here at least 3 times a month for work. The staff is very accommodating with regards to rooms &amp; mobile check ins. The breakfast in the morning is perfect for any appetite and is generally never packed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>I stay here at least 3 times a month for work. The staff is very accommodating with regards to rooms &amp; mobile check ins. The breakfast in the morning is perfect for any appetite and is generally never packed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r504586019-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504586019</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Not up to Marriott Standards</t>
+  </si>
+  <si>
+    <t>We stayed for two nights, a Wednesday and Thursday evening. Our room was never cleaned even asking them at 3:30pm to be sure it was done and when I questioned the front desk, she told me that if I leave the do not disturb up, they cannot clean the room. I told her that the do not disturb sign was Not up. She again told me that they cannot clean a room if it's hanging on the door. I proceeded to tell her that we are Platinum Marriott members and we travel every week. I think I know about the do not disturb sign. I told her that I wanted housekeeping reported and she said "I will give you extra points." So basically, nothing will be brought to the attention of management. In addition, the beds we had were not the Marriott bedding, nor the pillows. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for two nights, a Wednesday and Thursday evening. Our room was never cleaned even asking them at 3:30pm to be sure it was done and when I questioned the front desk, she told me that if I leave the do not disturb up, they cannot clean the room. I told her that the do not disturb sign was Not up. She again told me that they cannot clean a room if it's hanging on the door. I proceeded to tell her that we are Platinum Marriott members and we travel every week. I think I know about the do not disturb sign. I told her that I wanted housekeeping reported and she said "I will give you extra points." So basically, nothing will be brought to the attention of management. In addition, the beds we had were not the Marriott bedding, nor the pillows. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r503658120-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503658120</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Stay at Houston Down after the cruise</t>
+  </si>
+  <si>
+    <t>My daughters loved this hotel s much that they complained I should have booked more nights and 1 night is not enough.  The beds are so comfortable and the restroom was very nice and clean.   The room also very nice and big.  I will stay here again if I travel again to Houston next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>My daughters loved this hotel s much that they complained I should have booked more nights and 1 night is not enough.  The beds are so comfortable and the restroom was very nice and clean.   The room also very nice and big.  I will stay here again if I travel again to Houston next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r502531637-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502531637</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Convenient location, friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed for two nights, for a weekend in June. Very friendly staff at check in, and every time I visited the front desk. Breakfast was good, with plenty of options and good coffee. Wifi was reliable and easy to access. One minor issue was my nightly rate was higher on my receipt than when I booked. The front desk agent quickly rectified it and blamed my credit card but someone could've easily called and verified my CC info. That's the only thing keeping it from 5 stars.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for two nights, for a weekend in June. Very friendly staff at check in, and every time I visited the front desk. Breakfast was good, with plenty of options and good coffee. Wifi was reliable and easy to access. One minor issue was my nightly rate was higher on my receipt than when I booked. The front desk agent quickly rectified it and blamed my credit card but someone could've easily called and verified my CC info. That's the only thing keeping it from 5 stars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r501336433-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501336433</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Our Staycation Downtown Houston</t>
+  </si>
+  <si>
+    <t>I am a Marriott Reward member so when we decided to take a little mini staycation downtown Houston, I immediately went to the Marriott website and saw the SpringHill Suites location.  This location was perfect for us.  It was close to a lot of places and never more than a few $$ uber ride to other places we wanted to go.As it was also the weekend prior to my husbands  birthday, when the booking agent asked if there was a special occasion, I told them and the hotel was nice enough to deliver a complimentary bottle of Prosecco to our room.It was a wonderful weekend, the accommodations and all of the staff were perfect.  We will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>I am a Marriott Reward member so when we decided to take a little mini staycation downtown Houston, I immediately went to the Marriott website and saw the SpringHill Suites location.  This location was perfect for us.  It was close to a lot of places and never more than a few $$ uber ride to other places we wanted to go.As it was also the weekend prior to my husbands  birthday, when the booking agent asked if there was a special occasion, I told them and the hotel was nice enough to deliver a complimentary bottle of Prosecco to our room.It was a wonderful weekend, the accommodations and all of the staff were perfect.  We will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r500095346-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500095346</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Good Location In The City</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night and it seems to be a fairly central location to the city and the train is right outside. It's a short walk to Flying Saucer, or Dueling Pianos. Note: The self-parking is a challenge and valet is $30 (aggravating) but that's city normal I assume. It's an easy drive to IAH if you leave by 6amMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night and it seems to be a fairly central location to the city and the train is right outside. It's a short walk to Flying Saucer, or Dueling Pianos. Note: The self-parking is a challenge and valet is $30 (aggravating) but that's city normal I assume. It's an easy drive to IAH if you leave by 6amMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r498825888-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498825888</t>
+  </si>
+  <si>
+    <t>07/05/2017</t>
+  </si>
+  <si>
+    <t>Convenient Downtown Location</t>
+  </si>
+  <si>
+    <t>Loved having a hotel blocks away from the wedding reception in market square. The hotel is new and lovely in decor, all parking is valet shared among the attached 3 Marriott Properties and the free breakfast is satisfactory.  The spacious room met our needs. The downside is the slowness of the elevators. It seems there needs to be an additional bank of elevecators to carry the load. During  checkout Sunday morning we waited for the 8th elevator before we were able to load.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2017</t>
+  </si>
+  <si>
+    <t>Loved having a hotel blocks away from the wedding reception in market square. The hotel is new and lovely in decor, all parking is valet shared among the attached 3 Marriott Properties and the free breakfast is satisfactory.  The spacious room met our needs. The downside is the slowness of the elevators. It seems there needs to be an additional bank of elevecators to carry the load. During  checkout Sunday morning we waited for the 8th elevator before we were able to load.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r496253006-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496253006</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Red Sox game</t>
+  </si>
+  <si>
+    <t>My wife and I took our son and his family to see the Red Sox play the Astros and we stayed at the SpringHill Suites. We had a great stay, rooms were clean and set up very nicely.  The staff were friendly and helpful. The hot breakfast in the morning was very nice. I would definitely recommend the SpringHill Suites in Houston as a good choice and family friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I took our son and his family to see the Red Sox play the Astros and we stayed at the SpringHill Suites. We had a great stay, rooms were clean and set up very nicely.  The staff were friendly and helpful. The hot breakfast in the morning was very nice. I would definitely recommend the SpringHill Suites in Houston as a good choice and family friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r495469942-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495469942</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great hotel with great staff. Super friendly. Rooms are perfectly sized for a single or couple. You could even get a small family in there. Location is perfect for what I needed with walking distance to everything I needed. Would I stay here again??? ABSOLUTELY!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel with great staff. Super friendly. Rooms are perfectly sized for a single or couple. You could even get a small family in there. Location is perfect for what I needed with walking distance to everything I needed. Would I stay here again??? ABSOLUTELY!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r487502469-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487502469</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>In Town for a concert</t>
+  </si>
+  <si>
+    <t>Hotel is connected to 2 other hotels and can be kind of confusing. Stayed in a Queen suite room was large and beds were very comfortable. Employees were very friendly. Breakfast was ok had a waffle maker, oatmeal, cereals, breads and muffins as well as some scrambled eggs and turkey sausage.Parking is $30 a night valet.In walking distance to Toyota center and other restaurants. There is a Starbucks connected to the hotel. Only thing really bothered me was the homeless population is extremely large so every time you walked out of the building there was someone asking for money or to buy them something to eat. Even had a man laying on the sidewalk in front of the hotel getting high.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is connected to 2 other hotels and can be kind of confusing. Stayed in a Queen suite room was large and beds were very comfortable. Employees were very friendly. Breakfast was ok had a waffle maker, oatmeal, cereals, breads and muffins as well as some scrambled eggs and turkey sausage.Parking is $30 a night valet.In walking distance to Toyota center and other restaurants. There is a Starbucks connected to the hotel. Only thing really bothered me was the homeless population is extremely large so every time you walked out of the building there was someone asking for money or to buy them something to eat. Even had a man laying on the sidewalk in front of the hotel getting high.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r476527549-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476527549</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Really nice rooms</t>
+  </si>
+  <si>
+    <t>Rooms look like the have been recently renovated.  Hotel is quiet and includes a nice breakfast spread.  I usually stay next door at the Courtyard, but this hotel had nicer rooms and breakfast was included.  The gym at the Courtyard is much better than the SpringHill Suites, but the staff are just as nice and the location is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2017</t>
+  </si>
+  <si>
+    <t>Rooms look like the have been recently renovated.  Hotel is quiet and includes a nice breakfast spread.  I usually stay next door at the Courtyard, but this hotel had nicer rooms and breakfast was included.  The gym at the Courtyard is much better than the SpringHill Suites, but the staff are just as nice and the location is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r476269022-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476269022</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Good Location, Spacious Rooms</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for 2 nights, stayed in room 1604.  The location was very good for us, the hotel is valet only so we pretty much parked the car there and took Uber everywhere we went, was convenient for us to do that.  The breakfast was ok, just as a note during the weekend the book in the room says breakfast until 11am but it is wrong breakfast ends at 10:30.  The front desk staff when we checked in were very friendly.  Would stay here again.  There is a pool and fitness center but we didn't use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>We stayed at the hotel for 2 nights, stayed in room 1604.  The location was very good for us, the hotel is valet only so we pretty much parked the car there and took Uber everywhere we went, was convenient for us to do that.  The breakfast was ok, just as a note during the weekend the book in the room says breakfast until 11am but it is wrong breakfast ends at 10:30.  The front desk staff when we checked in were very friendly.  Would stay here again.  There is a pool and fitness center but we didn't use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r473947458-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473947458</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Perfect Stay</t>
+  </si>
+  <si>
+    <t>Picked the SpringHill Suites based on reviews and location as it is within walking distance of Minute Maid Park for a ballgame. You can tell that the whole hotel is relatively new based on its appearance. It is in an old renovated building that also has a Courtyard on one side and Residence Inn on the other and they are all serviced by the same Valet. 
+Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.
+Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).
+Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of...Picked the SpringHill Suites based on reviews and location as it is within walking distance of Minute Maid Park for a ballgame. You can tell that the whole hotel is relatively new based on its appearance. It is in an old renovated building that also has a Courtyard on one side and Residence Inn on the other and they are all serviced by the same Valet. Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of the night, or if people like to sleep in while others get up, the bathroom light shines through the door and illuminates the room. Breakfast - Breakfast is on the 2nd floor and had much more variety than some other hotels (scones, muffins, breads, fruit, yogurt, cereal, eggs, sausage, make your own waffle). Eating area is relatively large but we were in town when an Anime convention was happening and the eating area was filled up so we just returned to the room. Only suggestion for the buffet is to possibly move the toaster to a different location as the line got bogged down as people tried to toast their bread and english muffins. It created a very long line that was not moving even though the majority of people didn't want to use the toaster.Would definitely recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Picked the SpringHill Suites based on reviews and location as it is within walking distance of Minute Maid Park for a ballgame. You can tell that the whole hotel is relatively new based on its appearance. It is in an old renovated building that also has a Courtyard on one side and Residence Inn on the other and they are all serviced by the same Valet. 
+Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.
+Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).
+Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of...Picked the SpringHill Suites based on reviews and location as it is within walking distance of Minute Maid Park for a ballgame. You can tell that the whole hotel is relatively new based on its appearance. It is in an old renovated building that also has a Courtyard on one side and Residence Inn on the other and they are all serviced by the same Valet. Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of the night, or if people like to sleep in while others get up, the bathroom light shines through the door and illuminates the room. Breakfast - Breakfast is on the 2nd floor and had much more variety than some other hotels (scones, muffins, breads, fruit, yogurt, cereal, eggs, sausage, make your own waffle). Eating area is relatively large but we were in town when an Anime convention was happening and the eating area was filled up so we just returned to the room. Only suggestion for the buffet is to possibly move the toaster to a different location as the line got bogged down as people tried to toast their bread and english muffins. It created a very long line that was not moving even though the majority of people didn't want to use the toaster.Would definitely recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r463922562-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463922562</t>
+  </si>
+  <si>
+    <t>03/01/2017</t>
+  </si>
+  <si>
+    <t>hard to find, connected to 2 other hotels, but LOVELY!!!! Very trendy and hot breakfast</t>
+  </si>
+  <si>
+    <t>stayed here for a big conference at the George R Brown convention center and it was a great location in downtown - lots of places to walk to, very trendy - rooms and decor - Springhill is the "artsy" branch of Marriott - Amy, the manager was wonderful, when we checked in, even though she had worked for 4 long days!!! We loved the room layouts - the beds were kinda firm, but they had hot breakfast in the mornings and it was convenient and directly across the street from the GreenStreet area with shops/restaurants - would def recommend staying here!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>stayed here for a big conference at the George R Brown convention center and it was a great location in downtown - lots of places to walk to, very trendy - rooms and decor - Springhill is the "artsy" branch of Marriott - Amy, the manager was wonderful, when we checked in, even though she had worked for 4 long days!!! We loved the room layouts - the beds were kinda firm, but they had hot breakfast in the mornings and it was convenient and directly across the street from the GreenStreet area with shops/restaurants - would def recommend staying here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r463772264-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463772264</t>
+  </si>
+  <si>
+    <t>nice business hotel</t>
+  </si>
+  <si>
+    <t>stayed for 4 nights for a convention. Staff were nice and polite but were young and inexperienced and did not know their way around things so they had to call on the manager for few things but that was quite OK with me. The rooms are typical for springhill  suites and are large clean and nicely appointed. The only problem i had was with the pillows that were uncomfortable for me. Stay away from the rooms that are close to the elevator bank since they are especially noisy and each time the elevator passes you hear a loud thud. The location is OK for the convention center located about 7 blocks or 10 minutes walk away. There are a few restaurants around including a very good pizza place (Bombay Pizza Factory) and 2 Tex Mex and a few pricey steak houses. Internet service was fine and worked quite fast. Breakfast was nice but the selection of meat and cold cuts and cheese is very limited and more veggies would also have been well appreciated. Overall, its a good stay for business. They were also quite nice for allowing me a late checkout as I had a late flight out of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>stayed for 4 nights for a convention. Staff were nice and polite but were young and inexperienced and did not know their way around things so they had to call on the manager for few things but that was quite OK with me. The rooms are typical for springhill  suites and are large clean and nicely appointed. The only problem i had was with the pillows that were uncomfortable for me. Stay away from the rooms that are close to the elevator bank since they are especially noisy and each time the elevator passes you hear a loud thud. The location is OK for the convention center located about 7 blocks or 10 minutes walk away. There are a few restaurants around including a very good pizza place (Bombay Pizza Factory) and 2 Tex Mex and a few pricey steak houses. Internet service was fine and worked quite fast. Breakfast was nice but the selection of meat and cold cuts and cheese is very limited and more veggies would also have been well appreciated. Overall, its a good stay for business. They were also quite nice for allowing me a late checkout as I had a late flight out of Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r462720566-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462720566</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel Location for Convention Center</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in February 2017 for a four day conference at the George R. Brown Convention Center. Hotels closer or connected to the convention center were sold out at the time I booked. Overall, I would gladly stay here again for any future downtown Houston stays and would recommend this hotel.
+Pros:
+-Location. The hotel is right in the heart of downtown Houston and is only seven blocks from the convention center which equates to a 12-15 minute walk. Note that everywhere you walk people will stop you to ask for money or food.
+-The hotel and room have modern style and decor. Staff were very kind and efficient.
+-The room itself is clean with a large comfortable bed and linens, a desk for working, microwave, mini fridge, and large bathroom with clean towels and fixtures.
+-Free breakfast at 06:00 and coffee in the lobby. There is a Starbucks one door over from the hotel entrance.
+-Within easy walking distance of several places to eat and downtown attractions as well as public transportation.
+-I don't know if this will apply to everyone but I had a very early flight and I was able to check into my room before noon that day without difficulty.
+-Fast free WiFi and good channel selection on the large TV.
+Cons:
+-The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee,...I stayed at this hotel in February 2017 for a four day conference at the George R. Brown Convention Center. Hotels closer or connected to the convention center were sold out at the time I booked. Overall, I would gladly stay here again for any future downtown Houston stays and would recommend this hotel.Pros:-Location. The hotel is right in the heart of downtown Houston and is only seven blocks from the convention center which equates to a 12-15 minute walk. Note that everywhere you walk people will stop you to ask for money or food.-The hotel and room have modern style and decor. Staff were very kind and efficient.-The room itself is clean with a large comfortable bed and linens, a desk for working, microwave, mini fridge, and large bathroom with clean towels and fixtures.-Free breakfast at 06:00 and coffee in the lobby. There is a Starbucks one door over from the hotel entrance.-Within easy walking distance of several places to eat and downtown attractions as well as public transportation.-I don't know if this will apply to everyone but I had a very early flight and I was able to check into my room before noon that day without difficulty.-Fast free WiFi and good channel selection on the large TV.Cons:-The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee, tea, muffin, bagel, and some breads. I have seen better assortments elsewhere.-Also on food, there is no room service. There is a Bistro that also serves the connecting hotels that I did not eat at. However, you are within easy walking distance of several places to eat downtown but note that most grab and go places close around 4:00 PM or so. There are many sit down restaurants open later though.-I was on the seventh floor on the inside of the tower with a lovely view of a cement wall.-There was some moderate noise of a hysterical screaming child running down the hall and slamming of adjacent room doors. There is very mild noise from the nearby Metro rail. Regardless, I slept soundly.-This did not apply to me but parking is valet only and carries the valet level rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel in February 2017 for a four day conference at the George R. Brown Convention Center. Hotels closer or connected to the convention center were sold out at the time I booked. Overall, I would gladly stay here again for any future downtown Houston stays and would recommend this hotel.
+Pros:
+-Location. The hotel is right in the heart of downtown Houston and is only seven blocks from the convention center which equates to a 12-15 minute walk. Note that everywhere you walk people will stop you to ask for money or food.
+-The hotel and room have modern style and decor. Staff were very kind and efficient.
+-The room itself is clean with a large comfortable bed and linens, a desk for working, microwave, mini fridge, and large bathroom with clean towels and fixtures.
+-Free breakfast at 06:00 and coffee in the lobby. There is a Starbucks one door over from the hotel entrance.
+-Within easy walking distance of several places to eat and downtown attractions as well as public transportation.
+-I don't know if this will apply to everyone but I had a very early flight and I was able to check into my room before noon that day without difficulty.
+-Fast free WiFi and good channel selection on the large TV.
+Cons:
+-The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee,...I stayed at this hotel in February 2017 for a four day conference at the George R. Brown Convention Center. Hotels closer or connected to the convention center were sold out at the time I booked. Overall, I would gladly stay here again for any future downtown Houston stays and would recommend this hotel.Pros:-Location. The hotel is right in the heart of downtown Houston and is only seven blocks from the convention center which equates to a 12-15 minute walk. Note that everywhere you walk people will stop you to ask for money or food.-The hotel and room have modern style and decor. Staff were very kind and efficient.-The room itself is clean with a large comfortable bed and linens, a desk for working, microwave, mini fridge, and large bathroom with clean towels and fixtures.-Free breakfast at 06:00 and coffee in the lobby. There is a Starbucks one door over from the hotel entrance.-Within easy walking distance of several places to eat and downtown attractions as well as public transportation.-I don't know if this will apply to everyone but I had a very early flight and I was able to check into my room before noon that day without difficulty.-Fast free WiFi and good channel selection on the large TV.Cons:-The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee, tea, muffin, bagel, and some breads. I have seen better assortments elsewhere.-Also on food, there is no room service. There is a Bistro that also serves the connecting hotels that I did not eat at. However, you are within easy walking distance of several places to eat downtown but note that most grab and go places close around 4:00 PM or so. There are many sit down restaurants open later though.-I was on the seventh floor on the inside of the tower with a lovely view of a cement wall.-There was some moderate noise of a hysterical screaming child running down the hall and slamming of adjacent room doors. There is very mild noise from the nearby Metro rail. Regardless, I slept soundly.-This did not apply to me but parking is valet only and carries the valet level rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r436001720-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436001720</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>Easy access to Dining, Entertainment</t>
+  </si>
+  <si>
+    <t>Pretty easy access off freeway.  Valet parking only so finding a parking spot wasn't an issue.  Valet delivery was very quick.  This hotel shares the same city block/buildings with Courtyard and Residence Inn but each has their own dining areas.  Check in was a breeze.  Hotel elevator was FAST.  Room was located on a higher floor and very few rooms on the floor.  Even though we were real close to the elevator it was never a problem for noise.  The room was well laid out and inviting.  The lights at the headboard were great for reading in bed.  The only 2 negatives were bathroom related:  1 was the glass sliding bathroom door because it allowed light out to disturb the person in the bed when the lights were out in the hotel room and the 2nd was that the shower didn't drain well because the floor wasn't sloped towards the drain.  Small microwave and mini fridge was great for holding leftovers/drinks.  Breakfast buffet was really nice.  Food was fresh and hot.  Ample area to sit and eat.  Business area was adjacent to the breakfast area.  Computers were in good working order.  Front door of hotel took you right out to the rail which was easy to figure out and ride.  Lots of choices for eating in close walking distance.  Easy walking distance to the Toyota Center and Discovery Green.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Pretty easy access off freeway.  Valet parking only so finding a parking spot wasn't an issue.  Valet delivery was very quick.  This hotel shares the same city block/buildings with Courtyard and Residence Inn but each has their own dining areas.  Check in was a breeze.  Hotel elevator was FAST.  Room was located on a higher floor and very few rooms on the floor.  Even though we were real close to the elevator it was never a problem for noise.  The room was well laid out and inviting.  The lights at the headboard were great for reading in bed.  The only 2 negatives were bathroom related:  1 was the glass sliding bathroom door because it allowed light out to disturb the person in the bed when the lights were out in the hotel room and the 2nd was that the shower didn't drain well because the floor wasn't sloped towards the drain.  Small microwave and mini fridge was great for holding leftovers/drinks.  Breakfast buffet was really nice.  Food was fresh and hot.  Ample area to sit and eat.  Business area was adjacent to the breakfast area.  Computers were in good working order.  Front door of hotel took you right out to the rail which was easy to figure out and ride.  Lots of choices for eating in close walking distance.  Easy walking distance to the Toyota Center and Discovery Green.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r434829611-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434829611</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Basic stay.... But the front desk personnel make up where the hotel lacks</t>
+  </si>
+  <si>
+    <t>I stayed in town during the infamous "Quilting festival conference" and one would think the services at the hotel would be amazing or up to par.  Front desks warm welcome and consistent helpful suggestions smooth things over for me (at least).  Like others, this establishment needs to invest in better linens because the sheets do not FIT THE BED therefore I couldn't rest comfortably with the sheets rolling up on off the mattress and opted to sleep on the duvet with a cover sheet.  The area around the hotel is under construction and the signage for the location isn't prominent and the valet service needs to be reformed.  The young men are courteous, but they are always running around like chickens without heads, yet the wait for your car is around 8 -12 minutes.  For the additional $30 a night, it's worth taking Uber/Taxi or Metro to eliminate hassle MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>HoustonSHS, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2016</t>
+  </si>
+  <si>
+    <t>I stayed in town during the infamous "Quilting festival conference" and one would think the services at the hotel would be amazing or up to par.  Front desks warm welcome and consistent helpful suggestions smooth things over for me (at least).  Like others, this establishment needs to invest in better linens because the sheets do not FIT THE BED therefore I couldn't rest comfortably with the sheets rolling up on off the mattress and opted to sleep on the duvet with a cover sheet.  The area around the hotel is under construction and the signage for the location isn't prominent and the valet service needs to be reformed.  The young men are courteous, but they are always running around like chickens without heads, yet the wait for your car is around 8 -12 minutes.  For the additional $30 a night, it's worth taking Uber/Taxi or Metro to eliminate hassle More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r434785716-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>434785716</t>
+  </si>
+  <si>
+    <t>Great downtown location for a concert.</t>
+  </si>
+  <si>
+    <t>Enjoyed staying at this hotel and walking to the Toyota Center for a concert.  There were numerous restaurants within walking distance as well.  Expect to pay $17 for self parking or $30 for valet due to the fact that you are downtown and parking is very limited.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r431664082-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431664082</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Location and Comfort</t>
+  </si>
+  <si>
+    <t>Spacious rooms and nice bedding/pillows. Very typical Marriott accommodations, but this one is very up to date. Plenty of restaurants nearby and easy valet. Check in was swift and pleasant and the extra seating and desktop space is convenient for multiple people.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r427264684-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427264684</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not the best Spring Hill I've visited </t>
+  </si>
+  <si>
+    <t>I was disappointed in the house keeping service at this hotel. One day they completely miss cleaning my room. On top of that the day before they didn't replace the toilet paper so there I was not s good time to call the front desk. When i got there the main light was out it took three men three visits to fix it. The lights are very weird there. The tv is too dark to see and it can't be seen or adjusted. It was nice to have HBO so I could see my favorite show. The pillows are just large hard lumps of filling. Very uncomfortable and they were all the same no choices. My room was very dark in whole. The signage to the pool were no existence so that explains why no one was at the pool. I walked quite a while through several other hotels all connected to find the pool then I had to find my way back. Front desk staff was friendly all the time. MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSHS, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded October 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2016</t>
+  </si>
+  <si>
+    <t>I was disappointed in the house keeping service at this hotel. One day they completely miss cleaning my room. On top of that the day before they didn't replace the toilet paper so there I was not s good time to call the front desk. When i got there the main light was out it took three men three visits to fix it. The lights are very weird there. The tv is too dark to see and it can't be seen or adjusted. It was nice to have HBO so I could see my favorite show. The pillows are just large hard lumps of filling. Very uncomfortable and they were all the same no choices. My room was very dark in whole. The signage to the pool were no existence so that explains why no one was at the pool. I walked quite a while through several other hotels all connected to find the pool then I had to find my way back. Front desk staff was friendly all the time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r425565941-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425565941</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Good Hotel--I'd Skip the Valet if Possible</t>
+  </si>
+  <si>
+    <t>The Good:  Two nights for business.  Friendly staff, appears newly renovated.  Nice accommodations.  Access to two gyms, plus pool/hot tub.  Starbucks on the first floor.The breakfast was excellent.  Good, large, modern space (both comfortable but could be working space); food ranged from scrambled eggs, to bagels, fruit and juices, cereal, etc.  A pleasant surprise.The bad:  Valet.  $30 per night seems steep, even for downtown Houston.  Plus, staff were a little curt.  It took 25+ minutes to retrieve my car at offpeak times, even when we called ahead.  Lastly, who changes the radio station in the car for the 30-foot drive into the garage?In sum:  Good hotel that we'd stay in again.  I'll try to skip the valet next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>The Good:  Two nights for business.  Friendly staff, appears newly renovated.  Nice accommodations.  Access to two gyms, plus pool/hot tub.  Starbucks on the first floor.The breakfast was excellent.  Good, large, modern space (both comfortable but could be working space); food ranged from scrambled eggs, to bagels, fruit and juices, cereal, etc.  A pleasant surprise.The bad:  Valet.  $30 per night seems steep, even for downtown Houston.  Plus, staff were a little curt.  It took 25+ minutes to retrieve my car at offpeak times, even when we called ahead.  Lastly, who changes the radio station in the car for the 30-foot drive into the garage?In sum:  Good hotel that we'd stay in again.  I'll try to skip the valet next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r418274475-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418274475</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Nice central downtown location</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the hotel. Our room was bigger than expected and fully modernized. Bed was comfortable and everything worked. Really appreciated the free hot breakfast each morning. There were always scrambled eggs and waffles with a rotating breakfast meat each day. The location was great for our group as we were there for the football and baseball games. Minute Maid Park is a 20 minute walk and the football stadium is right off the light rail line which has a station across the street from the hotel. Very convenient and inexpensive ($1.25/ride or $3 for a day pass). Also loved having a bus that goes straight to the IAH airport just around the corner. All staff I encountered were friendly and helpful and my room was cleaned perfectly each day.MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay at the hotel. Our room was bigger than expected and fully modernized. Bed was comfortable and everything worked. Really appreciated the free hot breakfast each morning. There were always scrambled eggs and waffles with a rotating breakfast meat each day. The location was great for our group as we were there for the football and baseball games. Minute Maid Park is a 20 minute walk and the football stadium is right off the light rail line which has a station across the street from the hotel. Very convenient and inexpensive ($1.25/ride or $3 for a day pass). Also loved having a bus that goes straight to the IAH airport just around the corner. All staff I encountered were friendly and helpful and my room was cleaned perfectly each day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r417719205-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417719205</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>clean big noisy room</t>
+  </si>
+  <si>
+    <t>This is in the same building as the courtyard houston downtown that we stayed in 2 weeks prior.Our Springhill room was a little larger, but unfortunately we got stuck in 912 which wrapped around behind the elevator. We were tired from traveling and did not figure this out until we tucked into bed. oops. too much elevator noise.as with the courtyard, we would return, but I might be a bit smarter next time and ask for a different room.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSHSManager, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>This is in the same building as the courtyard houston downtown that we stayed in 2 weeks prior.Our Springhill room was a little larger, but unfortunately we got stuck in 912 which wrapped around behind the elevator. We were tired from traveling and did not figure this out until we tucked into bed. oops. too much elevator noise.as with the courtyard, we would return, but I might be a bit smarter next time and ask for a different room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r414706892-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414706892</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Great rate and spacious new room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My son is moving to Houston and we stayed here while apartment hunting.  Rate was good and I was pleasantly surprised by the rooms.  Very spacious and modern. Nice walk in shower, which was a sign that these rooms are relatively fresh and new  v older tub showers which you find in older properties. Very convenient for accessing midtown area and parking was easy - though just keep in mind valet parking is $30 per night. But probably the same at all downtown hotels.  I would definitely stay here again. Breakfast included too. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r403259706-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403259706</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel w/ good staff experiencing problems</t>
+  </si>
+  <si>
+    <t>In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.
+The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic,...In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic, in-room coffee machine was missing parts and (therefore) inoperable. I don’t mean to complain, but the truth is: the confluence of these negative factors prevented me from enjoying a calm and restful visit. Next time I'll choose another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.
+The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic,...In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic, in-room coffee machine was missing parts and (therefore) inoperable. I don’t mean to complain, but the truth is: the confluence of these negative factors prevented me from enjoying a calm and restful visit. Next time I'll choose another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r403132058-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403132058</t>
+  </si>
+  <si>
+    <t>Huge Room Great Staff 5 Stars</t>
+  </si>
+  <si>
+    <t>Located in the middle of downtown close to everything including Minute Maid Park which is walkable. The front desk and valet staff are very friendly. The room is huge with a separate sitting area from the bedroom. The room is set up like a "U" shape with the wall separating the beds and bathroom.If these is a complaint it is at times the valet gets backed up and the wait for you car can be long. This may be due to three Marriott properties (SpingHill, Courtyard and Residence Inn all located in the same building it seems and all use the same valet. I would definitely stay at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Located in the middle of downtown close to everything including Minute Maid Park which is walkable. The front desk and valet staff are very friendly. The room is huge with a separate sitting area from the bedroom. The room is set up like a "U" shape with the wall separating the beds and bathroom.If these is a complaint it is at times the valet gets backed up and the wait for you car can be long. This may be due to three Marriott properties (SpingHill, Courtyard and Residence Inn all located in the same building it seems and all use the same valet. I would definitely stay at this property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r399385717-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399385717</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Didn't meet my expectations at all (and I am not picky)</t>
+  </si>
+  <si>
+    <t>First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left...First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left a tip for housekeeping each day and they never picked it up. 7. They never replaced the glasses or cups we used. 8. One morning I walked 1 step out of the door and a bum asked me for money - he was shooed away soon after but left a negative impression on me. And it was the morning! 9. Breakfast for 2 of our 3 days had cut up fresh fruit. What happened on the 3rd day? It was inconsistent with the bread products too. So, in a nutshell (not really), I would not stay here again. Spent 3 nights so far and 1 to go. Still no pool either.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left...First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left a tip for housekeeping each day and they never picked it up. 7. They never replaced the glasses or cups we used. 8. One morning I walked 1 step out of the door and a bum asked me for money - he was shooed away soon after but left a negative impression on me. And it was the morning! 9. Breakfast for 2 of our 3 days had cut up fresh fruit. What happened on the 3rd day? It was inconsistent with the bread products too. So, in a nutshell (not really), I would not stay here again. Spent 3 nights so far and 1 to go. Still no pool either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r396004020-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396004020</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>Great hotel and spacious The rooms were clean and spacious and also quite modern Great room service and also a decent size black screen TVThe breakfast was adequate and very tasty apart from the coffee being very boring flavourLocation is good and very central but not too many restaurants to choose from in the immediate vicinity</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r394513683-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394513683</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Work Conference</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my stay at the Springhill Suites in Houston. I was there for a conference for work and the hotel was located in walking distance.There was A LOT of road construction going on which made the walking a little difficult but there was the free bus located steps from the front door that would take you to the conference center. The hotel décor was beautiful and the breakfast was outstanding. The only bad thing was there was a Forever 21 store right across the street. I spent way too much time and money in there. LOL. The front desk staff was awesome. They were super friendly and so helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I truly enjoyed my stay at the Springhill Suites in Houston. I was there for a conference for work and the hotel was located in walking distance.There was A LOT of road construction going on which made the walking a little difficult but there was the free bus located steps from the front door that would take you to the conference center. The hotel décor was beautiful and the breakfast was outstanding. The only bad thing was there was a Forever 21 store right across the street. I spent way too much time and money in there. LOL. The front desk staff was awesome. They were super friendly and so helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r389028735-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389028735</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Good Location and Great Hotel</t>
+  </si>
+  <si>
+    <t>Unlike other SpringHill Suites, this one in Downtown Houston has large, square rooms with plenty of space for four. Breakfast is more diverse than traditional hotel fare (welcome surprise), and the gym is sufficient. The SpringHill shares the same property with other Marriott hotels (unusual) and the pool is shared access. Expect to pay to park due to the location. We stayed on a weekend and the area is very quiet as this is the business district.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r371684035-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371684035</t>
+  </si>
+  <si>
+    <t>05/10/2016</t>
+  </si>
+  <si>
+    <t>Good location - acceptable amenities - good staff</t>
+  </si>
+  <si>
+    <t>Stayed 9 nights during a convention, comfortable bed &amp; reasonably well appointed room. Hotel is in the same building as Marriot &amp; Residence Inn and shares some facilities. No restaurant but the bar serves simple food until 10 - not a problem because the immediate Downtown area has a range of bars &amp; eating within walking distance. Tram stops almost outside &amp; visit to mid-town area for evenings and to other amenities was simple. Valet parking $30/day.Breakfast was only simple buffet with plastic knives etc (scrambled eggs were woeful). Staff were very helpful &amp; pleasant. Lifts were slow &amp; noisy.All in all not bad for a low-mid range hotel but watch out for Convention price $375/night ! - usually 180ish.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Stayed 9 nights during a convention, comfortable bed &amp; reasonably well appointed room. Hotel is in the same building as Marriot &amp; Residence Inn and shares some facilities. No restaurant but the bar serves simple food until 10 - not a problem because the immediate Downtown area has a range of bars &amp; eating within walking distance. Tram stops almost outside &amp; visit to mid-town area for evenings and to other amenities was simple. Valet parking $30/day.Breakfast was only simple buffet with plastic knives etc (scrambled eggs were woeful). Staff were very helpful &amp; pleasant. Lifts were slow &amp; noisy.All in all not bad for a low-mid range hotel but watch out for Convention price $375/night ! - usually 180ish.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r371329520-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371329520</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for three-nights.  Being amongst two other hotels we found it easy to find.  Our room (King studio) was great for the three of us.  Our son slept on a sofa bed.  We found the beds very comfortable.  Room was spacious and clean.  We enjoyed the free breakfast each morning.  The staff were very friendly and extremely helpful.  Would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>My family and I stayed here for three-nights.  Being amongst two other hotels we found it easy to find.  Our room (King studio) was great for the three of us.  Our son slept on a sofa bed.  We found the beds very comfortable.  Room was spacious and clean.  We enjoyed the free breakfast each morning.  The staff were very friendly and extremely helpful.  Would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r368790864-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368790864</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Nice and comfortable stay</t>
+  </si>
+  <si>
+    <t>The SpringHill Suites Houston Downtown/Convention Center, is a nice to stay in Houston , if you are in the Downtown area.  The staff were very friendly: Michael, Nigel, Angel, and Debbie.  The room were a nice size and we could move around comfortably.  The beds were very firm and we slept very well.  Breakfast was really, each day there was a different entre, and all of the normal breakfast goodies.  The staff that took care of breakfast, was fast and efficient.  They made sure that there, when something ran out, they were quick to fill it.  The only problem, with the SpringHill Suites Houston, we found, were that there were not enough mirrors or light for the usage of those mirrors.  We were there for a convention and when we stay, there is always more two to three women in a room, when we are getting ready to get dressed, we all need mirrors.  Our room only had two mirrors, 1. in the bathroom and 1 on the closet door, where there was no light.  Aside from that, we enjoyed our stay at this hotel.  We will be back in Houston in 4 years, maybe the mirror situation will be fixed.MoreShow less</t>
+  </si>
+  <si>
+    <t>The SpringHill Suites Houston Downtown/Convention Center, is a nice to stay in Houston , if you are in the Downtown area.  The staff were very friendly: Michael, Nigel, Angel, and Debbie.  The room were a nice size and we could move around comfortably.  The beds were very firm and we slept very well.  Breakfast was really, each day there was a different entre, and all of the normal breakfast goodies.  The staff that took care of breakfast, was fast and efficient.  They made sure that there, when something ran out, they were quick to fill it.  The only problem, with the SpringHill Suites Houston, we found, were that there were not enough mirrors or light for the usage of those mirrors.  We were there for a convention and when we stay, there is always more two to three women in a room, when we are getting ready to get dressed, we all need mirrors.  Our room only had two mirrors, 1. in the bathroom and 1 on the closet door, where there was no light.  Aside from that, we enjoyed our stay at this hotel.  We will be back in Houston in 4 years, maybe the mirror situation will be fixed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r363007029-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363007029</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Nice downtown alternative</t>
+  </si>
+  <si>
+    <t>We have used a number of the downtown hotels for conventions, meetings and leisure stays.  We chose the Springhill suites because even the Convention Hotel price was higher than we desired.  This property setup is something different than what we had experienced before.  The Courtyard, Residence Inn and Springhill Suites are all in one building.  Arrival for all three is in the same area and utilizing the same valet parking. After releasing your car, you can choose three different entrances to reach the three separate properties.   Same location gives you three different room types, meals, and amenities under one roof.The three properties do share one pool/hot tub that is associated with the Courtyard hotel.  Make sure to bring a room key so that you can get back into your section though.The room was comfortable and we had a nice view of the George R Brown and Discovery Green.  We were walking distance to everything and so we didn't need our car after we parked.  No real complaints on the stay.  The breakfast and room was adequate and the room was comfortable and clean.Only small disappointment was that the pool was still pretty cold(in April) and the hot tub wasn't functional.  Outside of that...fitness room and free internet were good.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have used a number of the downtown hotels for conventions, meetings and leisure stays.  We chose the Springhill suites because even the Convention Hotel price was higher than we desired.  This property setup is something different than what we had experienced before.  The Courtyard, Residence Inn and Springhill Suites are all in one building.  Arrival for all three is in the same area and utilizing the same valet parking. After releasing your car, you can choose three different entrances to reach the three separate properties.   Same location gives you three different room types, meals, and amenities under one roof.The three properties do share one pool/hot tub that is associated with the Courtyard hotel.  Make sure to bring a room key so that you can get back into your section though.The room was comfortable and we had a nice view of the George R Brown and Discovery Green.  We were walking distance to everything and so we didn't need our car after we parked.  No real complaints on the stay.  The breakfast and room was adequate and the room was comfortable and clean.Only small disappointment was that the pool was still pretty cold(in April) and the hot tub wasn't functional.  Outside of that...fitness room and free internet were good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r357674464-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357674464</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Strange Room Design</t>
+  </si>
+  <si>
+    <t>I spent a night here with husband &amp; 2 older sons. We were put in a room with the strangest arrangement: Both beds faced the bathroom which had a sliding translucent glass door. That might be fine if you are solo or with partner but as a mom I thought it was too weird so requested a different room. Got a one with a different layout, but still with the glass bathroom door, ugh! ...which didn't even lock, btw. Too close to elevators... There was a loud banging noise about every 20 seconds. all. night. long. And there was a very strange odor. Now, on the plus side, the beds were comfortable. Actually did end up having a good night of sleep in spite of odor &amp; elevator noise. And breakfast the next morning was GREAT. One of the best I've ever had in a hotel setting. So, although there were a few drawbacks, we slept &amp; ate well and were conveniently close to &amp; ready for our family excursion to NASA.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>I spent a night here with husband &amp; 2 older sons. We were put in a room with the strangest arrangement: Both beds faced the bathroom which had a sliding translucent glass door. That might be fine if you are solo or with partner but as a mom I thought it was too weird so requested a different room. Got a one with a different layout, but still with the glass bathroom door, ugh! ...which didn't even lock, btw. Too close to elevators... There was a loud banging noise about every 20 seconds. all. night. long. And there was a very strange odor. Now, on the plus side, the beds were comfortable. Actually did end up having a good night of sleep in spite of odor &amp; elevator noise. And breakfast the next morning was GREAT. One of the best I've ever had in a hotel setting. So, although there were a few drawbacks, we slept &amp; ate well and were conveniently close to &amp; ready for our family excursion to NASA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r354682574-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354682574</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Nice, walking distance to convention center</t>
+  </si>
+  <si>
+    <t>Went for a quick business meeting, the courtyard, Fairfield and Springhill are all in the same building...huh? But anyways the price was good, the room was nice, updated etc, and even with a lot of construction going on it was quiet for sleeping. Would recommend. Starbucks right outside as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Went for a quick business meeting, the courtyard, Fairfield and Springhill are all in the same building...huh? But anyways the price was good, the room was nice, updated etc, and even with a lot of construction going on it was quiet for sleeping. Would recommend. Starbucks right outside as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r340300226-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340300226</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Good hotel but some problems with our stay!</t>
+  </si>
+  <si>
+    <t>The rooms are very spacious and clean, the staff is nice but not really helpful (we talked to the manager and he said that he would beat any expedia rate as we wanted to extend our stay but the next day he wasn't there and the receptionist didn't seem to care) but the location is perfect! We had a bad experience on the new year's day breakfast as they put all of the three hotels together for breakfast and we actually had to wait for 30 minutes in the line in order to get food and a lot of things were missing from the table. The breakfast staff is lovely and helpful and they tried to do their best, but it was just a mess! Not talking about the 2-hour wait for the valet parking... they should organize better when they know that they have full occupancy!MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded January 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2016</t>
+  </si>
+  <si>
+    <t>The rooms are very spacious and clean, the staff is nice but not really helpful (we talked to the manager and he said that he would beat any expedia rate as we wanted to extend our stay but the next day he wasn't there and the receptionist didn't seem to care) but the location is perfect! We had a bad experience on the new year's day breakfast as they put all of the three hotels together for breakfast and we actually had to wait for 30 minutes in the line in order to get food and a lot of things were missing from the table. The breakfast staff is lovely and helpful and they tried to do their best, but it was just a mess! Not talking about the 2-hour wait for the valet parking... they should organize better when they know that they have full occupancy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r337001754-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337001754</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Suitable for solo business traveller</t>
+  </si>
+  <si>
+    <t>Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. 
+Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.
+If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is...Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is one of the streets that borders this hotel. Having grown up in Toronto, I wasn't phased by this, but some people might find it a bit hard to deal with. There are lots of police in the area, and they have neighbourhood greeters who can help you with directions, give you a map of the downtown area etc although it was recommended to me as a solo traveler that I shouldn't be walking around alone after 9 p.m. so I heeded that advice. This hotel did the job for my business trip, but I can't say that they went above and beyond (hence the average rating).MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. 
+Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.
+If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is...Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is one of the streets that borders this hotel. Having grown up in Toronto, I wasn't phased by this, but some people might find it a bit hard to deal with. There are lots of police in the area, and they have neighbourhood greeters who can help you with directions, give you a map of the downtown area etc although it was recommended to me as a solo traveler that I shouldn't be walking around alone after 9 p.m. so I heeded that advice. This hotel did the job for my business trip, but I can't say that they went above and beyond (hence the average rating).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r332975590-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332975590</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>This was a nice hotel about 6 blocks from the convention center. I walked to the convention center each day and the only problem I encountered was the construction, which the hotel isn't responsible for. My room was very nice and spacious. Hotel staff was nice. Exercise room was small but definitely had enough to get a workout. Breakfast was good, but the coffee was not to my liking. Luckily, there is a Starbucks steps away for those who are coffee snobs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r327470289-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327470289</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>I was happy</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because we're Marriott lovers and it was close to Toyota Center.  Again, I was more than happy to stay in a Marriott. As usual, beds were very comfortable and the bathroom was big.  More than happy!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because we're Marriott lovers and it was close to Toyota Center.  Again, I was more than happy to stay in a Marriott. As usual, beds were very comfortable and the bathroom was big.  More than happy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r323985124-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323985124</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Centrally Located</t>
+  </si>
+  <si>
+    <t>We recently spent the weekend at the Springhill Suites Hotel on Dallas t in downtown Houston. Our stay was wonderful. The room was spacious, clean and quiet in spite of a major road construction project that had closed Dallas St. The staff was friendly and helpful and the price was also quite reasonable considering the location. We were about 7 blocks from the George Brown Convention Center, a pleasant walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We recently spent the weekend at the Springhill Suites Hotel on Dallas t in downtown Houston. Our stay was wonderful. The room was spacious, clean and quiet in spite of a major road construction project that had closed Dallas St. The staff was friendly and helpful and the price was also quite reasonable considering the location. We were about 7 blocks from the George Brown Convention Center, a pleasant walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r321182460-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321182460</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Cleanest room I've ever stayed in!</t>
+  </si>
+  <si>
+    <t>Just checked out of the SpringHill Marriott and left very impressed!   The room was very clean and the staff extremely friendly and accommodating.  We stayed here for a medical trip to MD Anderson - all the hotels near the hospital were booked.  We didn't know exactly how long we would need to stay in Houston but booked the hotel for a full week.  This hotel is only 20 minutes from the hospital.The staff was extremely understanding and allowed us to check out several days early, upon being released from the hospital. Every time I entered the hotel, I was greeted by a friendly face.   The staff here really knows and understands customer service. Valet parking is $17/day or $35/overnight. Breakfast is on the 2nd floor and was pretty great, for continental breakfast! Starbucks and shopping is right next door. We know we'll be back in a few weeks and look forward to staying here again.Thanks to the staff here for making this a wonderful stay for the Ferguson's! MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Guest Relations Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2015</t>
+  </si>
+  <si>
+    <t>Just checked out of the SpringHill Marriott and left very impressed!   The room was very clean and the staff extremely friendly and accommodating.  We stayed here for a medical trip to MD Anderson - all the hotels near the hospital were booked.  We didn't know exactly how long we would need to stay in Houston but booked the hotel for a full week.  This hotel is only 20 minutes from the hospital.The staff was extremely understanding and allowed us to check out several days early, upon being released from the hospital. Every time I entered the hotel, I was greeted by a friendly face.   The staff here really knows and understands customer service. Valet parking is $17/day or $35/overnight. Breakfast is on the 2nd floor and was pretty great, for continental breakfast! Starbucks and shopping is right next door. We know we'll be back in a few weeks and look forward to staying here again.Thanks to the staff here for making this a wonderful stay for the Ferguson's! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r307259928-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>307259928</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>Advocate kickoff</t>
+  </si>
+  <si>
+    <t>Staying here for the ASU vs aTm game.  Wonderful hotel and staff.  Staff goes out of there way to make your stay comfortable.  We had a leak on our shower (newly opened hotel) and the staff was right on top of it up to giving us the opportunity to move.  If I am ever in Houston again I will stay here again.Thank you for the experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Staying here for the ASU vs aTm game.  Wonderful hotel and staff.  Staff goes out of there way to make your stay comfortable.  We had a leak on our shower (newly opened hotel) and the staff was right on top of it up to giving us the opportunity to move.  If I am ever in Houston again I will stay here again.Thank you for the experienceMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2004,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2036,4131 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>141</v>
+      </c>
+      <c r="X14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>163</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>172</v>
+      </c>
+      <c r="X18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>163</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>163</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>202</v>
+      </c>
+      <c r="X22" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>205</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>207</v>
+      </c>
+      <c r="K23" t="s">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s">
+        <v>209</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>87</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>210</v>
+      </c>
+      <c r="X23" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>201</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>218</v>
+      </c>
+      <c r="X24" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>231</v>
+      </c>
+      <c r="J26" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s">
+        <v>234</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>235</v>
+      </c>
+      <c r="X26" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>238</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>239</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+      <c r="K27" t="s">
+        <v>241</v>
+      </c>
+      <c r="L27" t="s">
+        <v>242</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>70</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>243</v>
+      </c>
+      <c r="X27" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>201</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>251</v>
+      </c>
+      <c r="X28" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>254</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>255</v>
+      </c>
+      <c r="J29" t="s">
+        <v>256</v>
+      </c>
+      <c r="K29" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>259</v>
+      </c>
+      <c r="X29" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>262</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>263</v>
+      </c>
+      <c r="J30" t="s">
+        <v>264</v>
+      </c>
+      <c r="K30" t="s">
+        <v>265</v>
+      </c>
+      <c r="L30" t="s">
+        <v>266</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>259</v>
+      </c>
+      <c r="X30" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>268</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>269</v>
+      </c>
+      <c r="J31" t="s">
+        <v>270</v>
+      </c>
+      <c r="K31" t="s">
+        <v>271</v>
+      </c>
+      <c r="L31" t="s">
+        <v>272</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>274</v>
+      </c>
+      <c r="X31" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>278</v>
+      </c>
+      <c r="J32" t="s">
+        <v>279</v>
+      </c>
+      <c r="K32" t="s">
+        <v>280</v>
+      </c>
+      <c r="L32" t="s">
+        <v>281</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>282</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>283</v>
+      </c>
+      <c r="X32" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>286</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>287</v>
+      </c>
+      <c r="J33" t="s">
+        <v>288</v>
+      </c>
+      <c r="K33" t="s">
+        <v>289</v>
+      </c>
+      <c r="L33" t="s">
+        <v>290</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>291</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>283</v>
+      </c>
+      <c r="X33" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>294</v>
+      </c>
+      <c r="J34" t="s">
+        <v>295</v>
+      </c>
+      <c r="K34" t="s">
+        <v>296</v>
+      </c>
+      <c r="L34" t="s">
+        <v>297</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>298</v>
+      </c>
+      <c r="X34" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>301</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>302</v>
+      </c>
+      <c r="J35" t="s">
+        <v>303</v>
+      </c>
+      <c r="K35" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" t="s">
+        <v>305</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>306</v>
+      </c>
+      <c r="X35" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>309</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>310</v>
+      </c>
+      <c r="J36" t="s">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s">
+        <v>311</v>
+      </c>
+      <c r="L36" t="s">
+        <v>312</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>70</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>306</v>
+      </c>
+      <c r="X36" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K37" t="s">
+        <v>317</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>282</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>319</v>
+      </c>
+      <c r="X37" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>322</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>323</v>
+      </c>
+      <c r="J38" t="s">
+        <v>324</v>
+      </c>
+      <c r="K38" t="s">
+        <v>325</v>
+      </c>
+      <c r="L38" t="s">
+        <v>326</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>327</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>335</v>
+      </c>
+      <c r="X39" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>338</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>339</v>
+      </c>
+      <c r="J40" t="s">
+        <v>331</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>327</v>
+      </c>
+      <c r="O40" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" t="s">
+        <v>70</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>327</v>
+      </c>
+      <c r="O42" t="s">
+        <v>70</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>352</v>
+      </c>
+      <c r="X42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>360</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>368</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>369</v>
+      </c>
+      <c r="J45" t="s">
+        <v>370</v>
+      </c>
+      <c r="K45" t="s">
+        <v>371</v>
+      </c>
+      <c r="L45" t="s">
+        <v>372</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X45" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>360</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>381</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>382</v>
+      </c>
+      <c r="J47" t="s">
+        <v>383</v>
+      </c>
+      <c r="K47" t="s">
+        <v>384</v>
+      </c>
+      <c r="L47" t="s">
+        <v>385</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>386</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>383</v>
+      </c>
+      <c r="K48" t="s">
+        <v>392</v>
+      </c>
+      <c r="L48" t="s">
+        <v>393</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>386</v>
+      </c>
+      <c r="O48" t="s">
+        <v>70</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>402</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>411</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>412</v>
+      </c>
+      <c r="J51" t="s">
+        <v>413</v>
+      </c>
+      <c r="K51" t="s">
+        <v>414</v>
+      </c>
+      <c r="L51" t="s">
+        <v>415</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>416</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>418</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>419</v>
+      </c>
+      <c r="J52" t="s">
+        <v>420</v>
+      </c>
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="L52" t="s">
+        <v>422</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>402</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>424</v>
+      </c>
+      <c r="J53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K53" t="s">
+        <v>426</v>
+      </c>
+      <c r="L53" t="s">
+        <v>427</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>428</v>
+      </c>
+      <c r="O53" t="s">
+        <v>70</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>429</v>
+      </c>
+      <c r="X53" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>432</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>433</v>
+      </c>
+      <c r="J54" t="s">
+        <v>434</v>
+      </c>
+      <c r="K54" t="s">
+        <v>435</v>
+      </c>
+      <c r="L54" t="s">
+        <v>436</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>437</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>429</v>
+      </c>
+      <c r="X54" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>437</v>
+      </c>
+      <c r="O55" t="s">
+        <v>70</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>446</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
+      </c>
+      <c r="K56" t="s">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>437</v>
+      </c>
+      <c r="O56" t="s">
+        <v>70</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>429</v>
+      </c>
+      <c r="X56" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>452</v>
+      </c>
+      <c r="J57" t="s">
+        <v>453</v>
+      </c>
+      <c r="K57" t="s">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s">
+        <v>455</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>456</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>457</v>
+      </c>
+      <c r="X57" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" t="s">
+        <v>463</v>
+      </c>
+      <c r="L58" t="s">
+        <v>464</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>465</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>429</v>
+      </c>
+      <c r="X58" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>467</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>468</v>
+      </c>
+      <c r="J59" t="s">
+        <v>469</v>
+      </c>
+      <c r="K59" t="s">
+        <v>470</v>
+      </c>
+      <c r="L59" t="s">
+        <v>471</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>416</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>472</v>
+      </c>
+      <c r="X59" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>475</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>476</v>
+      </c>
+      <c r="J60" t="s">
+        <v>477</v>
+      </c>
+      <c r="K60" t="s">
+        <v>478</v>
+      </c>
+      <c r="L60" t="s">
+        <v>479</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>480</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>482</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>483</v>
+      </c>
+      <c r="J61" t="s">
+        <v>484</v>
+      </c>
+      <c r="K61" t="s">
+        <v>265</v>
+      </c>
+      <c r="L61" t="s">
+        <v>485</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>480</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>486</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>487</v>
+      </c>
+      <c r="J62" t="s">
+        <v>488</v>
+      </c>
+      <c r="K62" t="s">
+        <v>489</v>
+      </c>
+      <c r="L62" t="s">
+        <v>490</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>491</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>457</v>
+      </c>
+      <c r="X62" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>493</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>494</v>
+      </c>
+      <c r="J63" t="s">
+        <v>495</v>
+      </c>
+      <c r="K63" t="s">
+        <v>496</v>
+      </c>
+      <c r="L63" t="s">
+        <v>497</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>498</v>
+      </c>
+      <c r="O63" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>457</v>
+      </c>
+      <c r="X63" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>500</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>501</v>
+      </c>
+      <c r="J64" t="s">
+        <v>502</v>
+      </c>
+      <c r="K64" t="s">
+        <v>503</v>
+      </c>
+      <c r="L64" t="s">
+        <v>504</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>498</v>
+      </c>
+      <c r="O64" t="s">
+        <v>87</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>505</v>
+      </c>
+      <c r="X64" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>508</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>509</v>
+      </c>
+      <c r="J65" t="s">
+        <v>510</v>
+      </c>
+      <c r="K65" t="s">
+        <v>511</v>
+      </c>
+      <c r="L65" t="s">
+        <v>512</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>513</v>
+      </c>
+      <c r="O65" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>514</v>
+      </c>
+      <c r="X65" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_582.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_582.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="824">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r607172341-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7355288</t>
+  </si>
+  <si>
+    <t>607172341</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, comfortable room</t>
+  </si>
+  <si>
+    <t>Everything I need in a hotel room - clean, comfortable bed, good shower plus a nice area to sit and relax or work and a good sized closet. Location is great with several nice restaurants within walking distance. Front desk staff was friendly and valet service was on the ball.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Everything I need in a hotel room - clean, comfortable bed, good shower plus a nice area to sit and relax or work and a good sized closet. Location is great with several nice restaurants within walking distance. Front desk staff was friendly and valet service was on the ball.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r602254301-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>602254301</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Poor customer service</t>
+  </si>
+  <si>
+    <t>They wouldn’t let me check in without my husband.  They asked him to call the hotel, but their phone service was out of order. I have been traveling at Marriott hotels for the last two weeks and never had this issue. Very poor handling of this situation.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2018</t>
+  </si>
+  <si>
+    <t>They wouldn’t let me check in without my husband.  They asked him to call the hotel, but their phone service was out of order. I have been traveling at Marriott hotels for the last two weeks and never had this issue. Very poor handling of this situation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r600707949-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>600707949</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>I spent a week during my Sorority conference and was quite impressed by the attentiveness of the staff and overall cleanliness of the hotel. Breakfast every morning was fresh and nice. The location is great close to everything but they ran out of towels. That I don’t understand. Management needs to access that issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>I spent a week during my Sorority conference and was quite impressed by the attentiveness of the staff and overall cleanliness of the hotel. Breakfast every morning was fresh and nice. The location is great close to everything but they ran out of towels. That I don’t understand. Management needs to access that issue.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r598062376-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>7355288</t>
-  </si>
-  <si>
     <t>598062376</t>
   </si>
   <si>
@@ -177,13 +255,10 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
   </si>
   <si>
     <t>As Downtown Houston comes back to life this hotel is in a nice spot to enjoy it all.  You're close to the Dynamo's stadium and the Astros' stadium, plus House of Blues is close by and the Theater District is just a short train ride away.  While this is in the historic Humble Oil Building, the hotel is very modern.  The suites are big enough, modern and very clean and comfortable.  The included breakfast is great and featured eggs, sausage and potatoes when we stayed along with all of the regular breakfast items. Marriott has two other hotels in the same building, so that can be a little confusing, and you share the pool.  We enjoyed our stay.More</t>
@@ -204,10 +279,10 @@
     <t>I stayed at the SpringHill Suites Houston Downtown/Convention Center July 7-12, 2018 for a Conference. The SpringHill Suites, the Courtyard Marriott and the Residence Inn Marriott are ALL in the same building. I did not know this when I booked.  You do not have to make  a decision between these 3 hotels based on location. The hotel was clean, comfort and convenient. The Hotel staff  members were professional, knowledgable and helpful. The hotel was roughly a 10 minute walk to the Convention Center (straight down the street you can't get loss). There is a Starbucks in the lobby and several restaurants in walking distances. Although, I did not have breakfast during my stay several guest seem to enjoy it.Because the Courtyard Marriott is connected we enjoyed Happy Hour there a couple of times. I took the SuperShuttle to the hotel from IAH and it was $21. Apparently an Uber is approximately $30. I would recommend this hotel if you have a conference at the Convention Center. The price, convenience  and service can't be beat.MoreShow less</t>
   </si>
   <si>
-    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 3 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 3 weeks ago</t>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2018</t>
   </si>
   <si>
     <t>I stayed at the SpringHill Suites Houston Downtown/Convention Center July 7-12, 2018 for a Conference. The SpringHill Suites, the Courtyard Marriott and the Residence Inn Marriott are ALL in the same building. I did not know this when I booked.  You do not have to make  a decision between these 3 hotels based on location. The hotel was clean, comfort and convenient. The Hotel staff  members were professional, knowledgable and helpful. The hotel was roughly a 10 minute walk to the Convention Center (straight down the street you can't get loss). There is a Starbucks in the lobby and several restaurants in walking distances. Although, I did not have breakfast during my stay several guest seem to enjoy it.Because the Courtyard Marriott is connected we enjoyed Happy Hour there a couple of times. I took the SuperShuttle to the hotel from IAH and it was $21. Apparently an Uber is approximately $30. I would recommend this hotel if you have a conference at the Convention Center. The price, convenience  and service can't be beat.More</t>
@@ -228,18 +303,51 @@
     <t>Stayed here for a meeting at the convention center in June.  The hotel is inter connected to a courtyard and residence inn which is Handy if you want to use a courtyard restaurant.  There's a Starbucks just outside the door and it works nicely to grab and go.  The convention center is a short walk up the street or a quick Uber.  I didn't mind the walk.  Staff were all great and rooms were comfortable and modern - Not run down.  Breakfast is a standard Marriott breakfast so it's good.  MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2018</t>
   </si>
   <si>
     <t>Stayed here for a meeting at the convention center in June.  The hotel is inter connected to a courtyard and residence inn which is Handy if you want to use a courtyard restaurant.  There's a Starbucks just outside the door and it works nicely to grab and go.  The convention center is a short walk up the street or a quick Uber.  I didn't mind the walk.  Staff were all great and rooms were comfortable and modern - Not run down.  Breakfast is a standard Marriott breakfast so it's good.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r591669841-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591669841</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Was in town for a business meeting downtown and stayed here for location and price. Hotel was just what I needed and even provided me a late checkout. Only negative was the $32 valet charge - that just seems to me to be too much. Will come back if in downtown Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Was in town for a business meeting downtown and stayed here for location and price. Hotel was just what I needed and even provided me a late checkout. Only negative was the $32 valet charge - that just seems to me to be too much. Will come back if in downtown Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r589801072-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>589801072</t>
+  </si>
+  <si>
+    <t>06/22/2018</t>
+  </si>
+  <si>
+    <t>Good stay for business downtown</t>
+  </si>
+  <si>
+    <t>No complaints about this property as far as mid-range hotels downtown go.  Valet parking was easy and efficient, no worries about bringing the car in and out as much as you need, but it was around $30 a day parking which is in line with the other hotels.  Room was big, including bathroom and everything was clean.  Staff was friendly and hotel was quiet for a downtown property, I was on a high floor which helps but didn't notice any real street noise.  It's a very short walk outside to the Total Plaza which has an entrance to the downtown pedestrian tunnel system.  Was set up okay for business traveler with a nice desk area.  This hotel would be good for families too with the good size rooms, probably good place to stay for an Astros game.MoreShow less</t>
+  </si>
+  <si>
+    <t>No complaints about this property as far as mid-range hotels downtown go.  Valet parking was easy and efficient, no worries about bringing the car in and out as much as you need, but it was around $30 a day parking which is in line with the other hotels.  Room was big, including bathroom and everything was clean.  Staff was friendly and hotel was quiet for a downtown property, I was on a high floor which helps but didn't notice any real street noise.  It's a very short walk outside to the Total Plaza which has an entrance to the downtown pedestrian tunnel system.  Was set up okay for business traveler with a nice desk area.  This hotel would be good for families too with the good size rooms, probably good place to stay for an Astros game.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r580327424-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,6 +369,12 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
     <t>The Hotel was very well maintained. The staff were friendly at Check-in. Rooms were spacious and the bed was comfy. The reason why this is not a 5/5 rating is because I thought I booked a Studio room with 2 queen beds, but on arrival it was a king bed with a Sofa bed. This wasn't ideal so we went back to reception to see if we could get the 2 queen beds I thought I had booked, but this wasn't possible. Other than that, the Hotel is in a good location and walking distance from a lot stuff to do.More</t>
   </si>
   <si>
@@ -300,6 +414,51 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r571154632-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571154632</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One night stay for an Astros game </t>
+  </si>
+  <si>
+    <t>This is a GREAT location for an overnight stay after an Astros baseball game. I cannot say enough about the superb service by the Assistant General Manager, Anthony Imes. I had a very small problem that I addressed with Anthony and he went above and beyond to make sure my stay was pleasant and ensure I would return to this location in the future. The rooms were very large and the facilities are beautiful! Thank you again Anthony for showing the true meaning of customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Anthony I, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>This is a GREAT location for an overnight stay after an Astros baseball game. I cannot say enough about the superb service by the Assistant General Manager, Anthony Imes. I had a very small problem that I addressed with Anthony and he went above and beyond to make sure my stay was pleasant and ensure I would return to this location in the future. The rooms were very large and the facilities are beautiful! Thank you again Anthony for showing the true meaning of customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r565137484-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>565137484</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>NICE HOTEL and CENTRALLY LOCATED</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 3 days / nights while my daughter took the Texas Bar Exam at the convention center. The room was very nice, clean and quiet. Millicent and the rest of the staff were very friendly and helpful. In fact, my daughter and other exam takers received a "goody bag" filled with treats to help them study and stay focused. Also, inside the bag was a wonderful handwritten note, to my daughter, from Millacent. It was a very sweet gesture and great customer service!                                                                                                            The convention center was an easy walk (1/2 a mile) from the hotel. In addition, the Toyota Center (Rockets, concerts, etc.), the baseball field (Astros), a shopping center and numerous nice restaurants were also within easy walking distance. And, the trains (very quiet people movers) stopped right in front of the hotel. We did not take those, so you may want to ask where they go.                                                                                            Oh....one other thing, breakfast was provided. Though choices were not unlimited, there were still enough to make everyone happy. And, the food was delicious. Not like some of those breakfasts where you have a million choices and end up eating toast because that's the only thing that tastes good.                                                                                              The nice room, friendly staff, good breakfast and close proximity to the convention center helped reduce the stress of the Bar Exam.......at least for me.                                              When we return to Houston, we will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Stayed at the hotel for 3 days / nights while my daughter took the Texas Bar Exam at the convention center. The room was very nice, clean and quiet. Millicent and the rest of the staff were very friendly and helpful. In fact, my daughter and other exam takers received a "goody bag" filled with treats to help them study and stay focused. Also, inside the bag was a wonderful handwritten note, to my daughter, from Millacent. It was a very sweet gesture and great customer service!                                                                                                            The convention center was an easy walk (1/2 a mile) from the hotel. In addition, the Toyota Center (Rockets, concerts, etc.), the baseball field (Astros), a shopping center and numerous nice restaurants were also within easy walking distance. And, the trains (very quiet people movers) stopped right in front of the hotel. We did not take those, so you may want to ask where they go.                                                                                            Oh....one other thing, breakfast was provided. Though choices were not unlimited, there were still enough to make everyone happy. And, the food was delicious. Not like some of those breakfasts where you have a million choices and end up eating toast because that's the only thing that tastes good.                                                                                              The nice room, friendly staff, good breakfast and close proximity to the convention center helped reduce the stress of the Bar Exam.......at least for me.                                              When we return to Houston, we will definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r555740647-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -349,6 +508,42 @@
   </si>
   <si>
     <t>Running the Chevron Marathon and wanted to stay close to the start and finish lines. Perfect location. We were able to check in  little early. As we checked in, I inquired about a late check-out since I was running the marathon. Hotel was one of the select marathon hotels, so they were allowing late check-outs and gave me the option all the way to 4 pm.Also the hotel was providing the runners with a grab an go breakfast bag starting at 5 am and a full breakfast at 6 am. Rooms were large and quite comfortable. I was extremely happy with the hotel. As a Marriott Gold Member, I was surprised this was only a Category 3 hotel. I would rate at higher at perhaps a 4 or 5 CAT.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r553713376-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553713376</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I had the pleasure of staying here December 26, 2016. Lovely hotel. Incredible front desk staff that is friendly and helpful. The room was spacious and comfortable. The only drawback is mandatory valet parking, which I found over priced, however the service was efficient. Walking distance to lots of great restaurants. Perfect place to stay for a House of Blues event. I will return!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r553534281-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553534281</t>
+  </si>
+  <si>
+    <t>01/13/2018</t>
+  </si>
+  <si>
+    <t>Downtown Meeting Stay</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a series of weekend meetings (2 night stay) at another nearby hotel in downtown Houston.  It is an easy walk to the Convention Center and Toyota Center.  Valet parking is the only option at this hotel at $30/night. I am a Marriott Rewards member and got a rate the included free valet parking.  If you have any business downtown the location is great.  There is a Starbucks located on the ground level around the corner from the entrance to the hotel.  This hotel along with the Courtyard and Residence Inn are all basically interconnected together in one big building.  The room was great and served its purpose. It had a mini fridge and microwave in the room.  I stayed on the 11th floor which is also where the fitness and laundry rooms were located.  The room did not have a bath tub as it was a shower only.  I did not have the breakfast buffet but it has the normal choice of food.  There are a few restaurants I know within an easy walk from the hotel and not far from House of Blues.  I am not a high maintenance person and was very satisfied with the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a series of weekend meetings (2 night stay) at another nearby hotel in downtown Houston.  It is an easy walk to the Convention Center and Toyota Center.  Valet parking is the only option at this hotel at $30/night. I am a Marriott Rewards member and got a rate the included free valet parking.  If you have any business downtown the location is great.  There is a Starbucks located on the ground level around the corner from the entrance to the hotel.  This hotel along with the Courtyard and Residence Inn are all basically interconnected together in one big building.  The room was great and served its purpose. It had a mini fridge and microwave in the room.  I stayed on the 11th floor which is also where the fitness and laundry rooms were located.  The room did not have a bath tub as it was a shower only.  I did not have the breakfast buffet but it has the normal choice of food.  There are a few restaurants I know within an easy walk from the hotel and not far from House of Blues.  I am not a high maintenance person and was very satisfied with the hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r543578343-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
@@ -436,6 +631,54 @@
 I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard...Since this is an old office building re-purposed as a hotel each room is different.  I was there for the Houston quilt show and had to move here because my original hotel was flooded by the hurricane.  Location was great right on the bus line to/from the convention center but I had driven to the hotel and the parking is only valet. The extra I had to spend on the room and the extra for the valet really added up for a 4 night stay.  As a gold member I had hoped to get an upgrade but they were sold out and couldn't move rooms. I hate being near the elevator and my room shared a wall with the elevator so the noise up/down was bothersome.  Breakfast was nicely done and they did a good job of keeping up with the rush.  Room got warm at night even with the temperature turned down. Guess like a lot of hotels the motion detector thinks no one is in and turns off.  I really hate that feature.  This was October but it get stuffy in a room where you can't open the windows.I felt bad for the housekeeping staff since there was no way to keep the water in the shower. No matter how well the glass door was closed and appeared to be sealed shut there was always a huge puddle outside on the tile. I almost learned the hard way. First time out of the shower I slipped a bit but caught myself on the sink.  I put down extra towels after that.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r537906999-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537906999</t>
+  </si>
+  <si>
+    <t>11/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superb stay </t>
+  </si>
+  <si>
+    <t>Mario gave excellent service starting with giving me a room with an excellent view during the world series. His pursuit to ensure I was happy did not end there, he had insights for great restaurants and local attractions that only made my stay more enjoyable. When I return to Houston this is my go to hotel and I will always ask for Mario.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2017</t>
+  </si>
+  <si>
+    <t>Mario gave excellent service starting with giving me a room with an excellent view during the world series. His pursuit to ensure I was happy did not end there, he had insights for great restaurants and local attractions that only made my stay more enjoyable. When I return to Houston this is my go to hotel and I will always ask for Mario.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r537003869-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>537003869</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>Stayed here with some friends in October, sofa bed was very comfortable, room was spacious and clean, helpful staff, room had plenty of space for 5 people which was great! Good downtown location and safe areaMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here with some friends in October, sofa bed was very comfortable, room was spacious and clean, helpful staff, room had plenty of space for 5 people which was great! Good downtown location and safe areaMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r536676610-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -500,6 +743,74 @@
   </si>
   <si>
     <t>We came to see the Astros win on Saturday and to visit NASA on Sunday. Unfortunately a dead battery put a crimp in our plans. Fortunately, SpringHill Suites has a highly professional staff that goes over and beyond the call of duty. Kudos to General Manager Kim Stone-Gagnon for her undivided attention in making sure our vehicle was charged and our ride home was safe. Rarely does one find such efficiency.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r531794735-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531794735</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Hurricane Harvey Evacuee/Victim</t>
+  </si>
+  <si>
+    <t>First off I'd like to thank GOD F.E.M.A. &amp; Volunteers for helping put our lives back together after that devastating storm.
+Next I'd like to thank most of the staff @the Springhill Suites.
+I arrived to the property with just the clothes on my back (backpack) after losing a vehicle to the water &amp; most of my other belongings.
+With few hotels lodgeable after the storm I searched the F.E.M.A. website diligently for a hotel close to the George R. Brown (GRB) convention center as that was where most of "our help" was staged.
+To my surprise this property was aiding &amp; accepting victims &amp; had vacancies. With a signature &amp; I.D. i was in.
+The property had little to no damage &amp; though not fully staffed at the time (understandably so) it was very operational.
+The room was more than what I'd expected in size for a downtown hotel given that most hotels have small rooms in the downtown area. Their room was spacious &amp; very well apointed with essentials I normally took for granted: soaps, shampoos, towels, extra pillows etc being that I now had none of those.
+I noticed and watched very closely to see if the staff would become differential to F.E.M.A. evacuees vs the retail hotel customers and with maybe just 1 exception, they treated us all the same &amp; as honored guests although some of the evacuees were not reciprocal in kindness &amp; courtesy...First off I'd like to thank GOD F.E.M.A. &amp; Volunteers for helping put our lives back together after that devastating storm.Next I'd like to thank most of the staff @the Springhill Suites.I arrived to the property with just the clothes on my back (backpack) after losing a vehicle to the water &amp; most of my other belongings.With few hotels lodgeable after the storm I searched the F.E.M.A. website diligently for a hotel close to the George R. Brown (GRB) convention center as that was where most of "our help" was staged.To my surprise this property was aiding &amp; accepting victims &amp; had vacancies. With a signature &amp; I.D. i was in.The property had little to no damage &amp; though not fully staffed at the time (understandably so) it was very operational.The room was more than what I'd expected in size for a downtown hotel given that most hotels have small rooms in the downtown area. Their room was spacious &amp; very well apointed with essentials I normally took for granted: soaps, shampoos, towels, extra pillows etc being that I now had none of those.I noticed and watched very closely to see if the staff would become differential to F.E.M.A. evacuees vs the retail hotel customers and with maybe just 1 exception, they treated us all the same &amp; as honored guests although some of the evacuees were not reciprocal in kindness &amp; courtesy to the staff.MyaleneI met this sweetest of housekeeping staff on day 2 of my stay with a very accented "hello good morning would you like room service?" (as I learned she is from Cuba.)Even on days I could not return to the hotel I knew Ms. Myalene had been in my room as she used extra fragrance to refresh the carpet. So so nice.ShirileyThis sweet housekeeping staff was always polite &amp; attentive to her job. Always a greeting or encouraging word whenever we spoke. Wont forget her.CarlaThe front desk was always commanded by Ms. Carla most nights when I arrived in from work.She was so nice (Ms Jasmine also) and I was shocked to learn she was so nice to me &amp; at the same time she was a Harvey victim as well living now where she worked.She gave me so much help with my FEMA app &amp; contacting them. A real jem of a person. Wont forget her.Faye &amp; NormaIf I remember right these two ladies make the best breakfasts in Houston with the smiles to boot! (And I can eat let me tell you).I looked forward to getting off work overnight and coming (Home?) in time for their superb breakfast(s).(About breakfast)...................This property has 3 hotels in 1 building-Courtyard, Springhill, &amp; Residence Inn.So 2 shared breakfast locations are available for all 3 hotels! No egg is safe at this place!  Breakfasts were huge in each location &amp; always ON TIME!!!!(Thanks to Amy the asst manager who helped her staff wherever she was needed when they fell behind)Often I ate breakfast with Ms. Carla as we went through our stages of grief together verbally while remaining thankful because it could have been a lot worse.I wont forget her.As a cabby Ive stayed at a lot of spots in Houston but this property is worthy of being called #Houston Strong.I was sad leaving but happy knowing whoever stays at this place will be treated like home. Gotta move on to see what else GOD has in store for me.For Houston. For Texas. For Florida. For Puerto Rico. For America.Shout out to F.E.M.A., Red Cross, G.M. Kim President Trump and his people for quick help.Fr end of Aug to Oct. 9MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>First off I'd like to thank GOD F.E.M.A. &amp; Volunteers for helping put our lives back together after that devastating storm.
+Next I'd like to thank most of the staff @the Springhill Suites.
+I arrived to the property with just the clothes on my back (backpack) after losing a vehicle to the water &amp; most of my other belongings.
+With few hotels lodgeable after the storm I searched the F.E.M.A. website diligently for a hotel close to the George R. Brown (GRB) convention center as that was where most of "our help" was staged.
+To my surprise this property was aiding &amp; accepting victims &amp; had vacancies. With a signature &amp; I.D. i was in.
+The property had little to no damage &amp; though not fully staffed at the time (understandably so) it was very operational.
+The room was more than what I'd expected in size for a downtown hotel given that most hotels have small rooms in the downtown area. Their room was spacious &amp; very well apointed with essentials I normally took for granted: soaps, shampoos, towels, extra pillows etc being that I now had none of those.
+I noticed and watched very closely to see if the staff would become differential to F.E.M.A. evacuees vs the retail hotel customers and with maybe just 1 exception, they treated us all the same &amp; as honored guests although some of the evacuees were not reciprocal in kindness &amp; courtesy...First off I'd like to thank GOD F.E.M.A. &amp; Volunteers for helping put our lives back together after that devastating storm.Next I'd like to thank most of the staff @the Springhill Suites.I arrived to the property with just the clothes on my back (backpack) after losing a vehicle to the water &amp; most of my other belongings.With few hotels lodgeable after the storm I searched the F.E.M.A. website diligently for a hotel close to the George R. Brown (GRB) convention center as that was where most of "our help" was staged.To my surprise this property was aiding &amp; accepting victims &amp; had vacancies. With a signature &amp; I.D. i was in.The property had little to no damage &amp; though not fully staffed at the time (understandably so) it was very operational.The room was more than what I'd expected in size for a downtown hotel given that most hotels have small rooms in the downtown area. Their room was spacious &amp; very well apointed with essentials I normally took for granted: soaps, shampoos, towels, extra pillows etc being that I now had none of those.I noticed and watched very closely to see if the staff would become differential to F.E.M.A. evacuees vs the retail hotel customers and with maybe just 1 exception, they treated us all the same &amp; as honored guests although some of the evacuees were not reciprocal in kindness &amp; courtesy to the staff.MyaleneI met this sweetest of housekeeping staff on day 2 of my stay with a very accented "hello good morning would you like room service?" (as I learned she is from Cuba.)Even on days I could not return to the hotel I knew Ms. Myalene had been in my room as she used extra fragrance to refresh the carpet. So so nice.ShirileyThis sweet housekeeping staff was always polite &amp; attentive to her job. Always a greeting or encouraging word whenever we spoke. Wont forget her.CarlaThe front desk was always commanded by Ms. Carla most nights when I arrived in from work.She was so nice (Ms Jasmine also) and I was shocked to learn she was so nice to me &amp; at the same time she was a Harvey victim as well living now where she worked.She gave me so much help with my FEMA app &amp; contacting them. A real jem of a person. Wont forget her.Faye &amp; NormaIf I remember right these two ladies make the best breakfasts in Houston with the smiles to boot! (And I can eat let me tell you).I looked forward to getting off work overnight and coming (Home?) in time for their superb breakfast(s).(About breakfast)...................This property has 3 hotels in 1 building-Courtyard, Springhill, &amp; Residence Inn.So 2 shared breakfast locations are available for all 3 hotels! No egg is safe at this place!  Breakfasts were huge in each location &amp; always ON TIME!!!!(Thanks to Amy the asst manager who helped her staff wherever she was needed when they fell behind)Often I ate breakfast with Ms. Carla as we went through our stages of grief together verbally while remaining thankful because it could have been a lot worse.I wont forget her.As a cabby Ive stayed at a lot of spots in Houston but this property is worthy of being called #Houston Strong.I was sad leaving but happy knowing whoever stays at this place will be treated like home. Gotta move on to see what else GOD has in store for me.For Houston. For Texas. For Florida. For Puerto Rico. For America.Shout out to F.E.M.A., Red Cross, G.M. Kim President Trump and his people for quick help.Fr end of Aug to Oct. 9More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r526751912-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>526751912</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We Loved It! </t>
+  </si>
+  <si>
+    <t>We came to Houston for an Astros game and wanted to stay in downtown without breaking the bank. We found this location because we're Marriott Vacation club owners. This is a really unique property. It's three hotels in one old, recently renovated building. We opted for the least expensive of the three, SpringHill Suites.The rooms are very nice. We got an upgrade on our room without asking which is always nice. Just be aware that it's all valet parking which is $30 per night unless you book a rate with parking which we did. Breakfast is the standard SS fare but was very well done. Staff were all very nice and friendly. It's just a few blocks from everything downtown.If we're ever back in the area we'll certainly return. Highly recommend this property! MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded September 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 25, 2017</t>
+  </si>
+  <si>
+    <t>We came to Houston for an Astros game and wanted to stay in downtown without breaking the bank. We found this location because we're Marriott Vacation club owners. This is a really unique property. It's three hotels in one old, recently renovated building. We opted for the least expensive of the three, SpringHill Suites.The rooms are very nice. We got an upgrade on our room without asking which is always nice. Just be aware that it's all valet parking which is $30 per night unless you book a rate with parking which we did. Breakfast is the standard SS fare but was very well done. Staff were all very nice and friendly. It's just a few blocks from everything downtown.If we're ever back in the area we'll certainly return. Highly recommend this property! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r516464077-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
@@ -579,15 +890,54 @@
     <t>Great location near metro station and many great restaurants and shopping. Customer service was top-notch and Ms. Maurnese was absolutely wonderful! We appreciated the staff going out of their way to make our stay extraordinary. Will stay here again when in Houston!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r510983348-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510983348</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Great Weekend Stay</t>
+  </si>
+  <si>
+    <t>We had a great time the rooms were very nice and clean. The staff was awesome the entire stay . From Ms. Vanity in the morning for breakfast , Amy all afternoon helping us with good spots to eat around town. Definitely will be staying with you guys on my next trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great time the rooms were very nice and clean. The staff was awesome the entire stay . From Ms. Vanity in the morning for breakfast , Amy all afternoon helping us with good spots to eat around town. Definitely will be staying with you guys on my next trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r509808546-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509808546</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>loud noises, broken elevators, and not enough towels.</t>
+  </si>
+  <si>
+    <t>Suite was large and clean but their were very loud noises all night long.  Can only assume it was the elevators since they were not working the next morning.  Made it difficult to sleep.  We were on 16th floor...1 elevator only goes to the 15th floor, 2nd elevator was not working, and 3rd elevator quit opening on the 16th floor.  We waited over 15 minutes at which time we had to carry all luggage to 15th floor.  Then elevator stopped on every floor on the way down with many people waiting to get on because elevators weren't working.  In addition, I made reservation online and was able to request extra pillows, extra towels and a roll away bed.  I received none of these.  Was only given towels for 4 when reservation was made for 5.  Finally, while there is a pool, it is a long way from your hotel.  There is 3 hotels in one at this location and their is only 1 pool that is actually at one of the other hotels.  The signs to get to the pool are not good and it is very difficult to find.  Upon complaint I only received an apology and none of the things were handled.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Suite was large and clean but their were very loud noises all night long.  Can only assume it was the elevators since they were not working the next morning.  Made it difficult to sleep.  We were on 16th floor...1 elevator only goes to the 15th floor, 2nd elevator was not working, and 3rd elevator quit opening on the 16th floor.  We waited over 15 minutes at which time we had to carry all luggage to 15th floor.  Then elevator stopped on every floor on the way down with many people waiting to get on because elevators weren't working.  In addition, I made reservation online and was able to request extra pillows, extra towels and a roll away bed.  I received none of these.  Was only given towels for 4 when reservation was made for 5.  Finally, while there is a pool, it is a long way from your hotel.  There is 3 hotels in one at this location and their is only 1 pool that is actually at one of the other hotels.  The signs to get to the pool are not good and it is very difficult to find.  Upon complaint I only received an apology and none of the things were handled.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r509804894-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
     <t>509804894</t>
   </si>
   <si>
-    <t>08/07/2017</t>
-  </si>
-  <si>
     <t>VERY FRIENDLY STAFF</t>
   </si>
   <si>
@@ -645,27 +995,66 @@
     <t>I stay here at least 3 times a month for work. The staff is very accommodating with regards to rooms &amp; mobile check ins. The breakfast in the morning is perfect for any appetite and is generally never packed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r505258097-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505258097</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay in Downtown Houston</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this property.  The people at the front desk are friendly and fill my special requests without question.   I love the lighting in the bathroom which made shaving easy.The free breakfast with the stay sets the standard for what these breakfast really should be.  The scrabble eggs were and the bacon perfectly cooked and a quality salsa was available to top the eggs.  On the days where I had the oatmeal instead, it was a great consistency and warm enough to heat the peanut butter I mixed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at this property.  The people at the front desk are friendly and fill my special requests without question.   I love the lighting in the bathroom which made shaving easy.The free breakfast with the stay sets the standard for what these breakfast really should be.  The scrabble eggs were and the bacon perfectly cooked and a quality salsa was available to top the eggs.  On the days where I had the oatmeal instead, it was a great consistency and warm enough to heat the peanut butter I mixed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r504635457-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504635457</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Was ok</t>
+  </si>
+  <si>
+    <t>Nice beds, really large room clean but the bathroom was horrible when showering the water leek to the hole bathroom floor making a really mass, you have to pay to park your car   It's no cheap I was expecting more for this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Nice beds, really large room clean but the bathroom was horrible when showering the water leek to the hole bathroom floor making a really mass, you have to pay to park your car   It's no cheap I was expecting more for this hotelMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r504586019-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
     <t>504586019</t>
   </si>
   <si>
-    <t>07/22/2017</t>
-  </si>
-  <si>
     <t>Not up to Marriott Standards</t>
   </si>
   <si>
     <t>We stayed for two nights, a Wednesday and Thursday evening. Our room was never cleaned even asking them at 3:30pm to be sure it was done and when I questioned the front desk, she told me that if I leave the do not disturb up, they cannot clean the room. I told her that the do not disturb sign was Not up. She again told me that they cannot clean a room if it's hanging on the door. I proceeded to tell her that we are Platinum Marriott members and we travel every week. I think I know about the do not disturb sign. I told her that I wanted housekeeping reported and she said "I will give you extra points." So basically, nothing will be brought to the attention of management. In addition, the beds we had were not the Marriott bedding, nor the pillows. MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded July 23, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 23, 2017</t>
-  </si>
-  <si>
     <t>We stayed for two nights, a Wednesday and Thursday evening. Our room was never cleaned even asking them at 3:30pm to be sure it was done and when I questioned the front desk, she told me that if I leave the do not disturb up, they cannot clean the room. I told her that the do not disturb sign was Not up. She again told me that they cannot clean a room if it's hanging on the door. I proceeded to tell her that we are Platinum Marriott members and we travel every week. I think I know about the do not disturb sign. I told her that I wanted housekeeping reported and she said "I will give you extra points." So basically, nothing will be brought to the attention of management. In addition, the beds we had were not the Marriott bedding, nor the pillows. More</t>
   </si>
   <si>
@@ -720,27 +1109,60 @@
     <t>Stayed for two nights, for a weekend in June. Very friendly staff at check in, and every time I visited the front desk. Breakfast was good, with plenty of options and good coffee. Wifi was reliable and easy to access. One minor issue was my nightly rate was higher on my receipt than when I booked. The front desk agent quickly rectified it and blamed my credit card but someone could've easily called and verified my CC info. That's the only thing keeping it from 5 stars.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r501603651-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501603651</t>
+  </si>
+  <si>
+    <t>07/13/2017</t>
+  </si>
+  <si>
+    <t>Relaxing weekend stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was a great place to stay for a relaxing weekend. The front desk representative was awesome. He made sure that we felt at home. He suggested different events going on around town that we may be interested in during our stay. This is now my go to hotel when in the area. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r501339216-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501339216</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Business for convention</t>
+  </si>
+  <si>
+    <t>Room was updated and comfortable, Walking distance to the convention center.  Had umbrellas to use during the rain.  Able to advise regarding local events and dining.  Did not have any issues with the room or accomodationsMoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Room was updated and comfortable, Walking distance to the convention center.  Had umbrellas to use during the rain.  Able to advise regarding local events and dining.  Did not have any issues with the room or accomodationsMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r501336433-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
     <t>501336433</t>
   </si>
   <si>
-    <t>07/12/2017</t>
-  </si>
-  <si>
     <t>Our Staycation Downtown Houston</t>
   </si>
   <si>
     <t>I am a Marriott Reward member so when we decided to take a little mini staycation downtown Houston, I immediately went to the Marriott website and saw the SpringHill Suites location.  This location was perfect for us.  It was close to a lot of places and never more than a few $$ uber ride to other places we wanted to go.As it was also the weekend prior to my husbands  birthday, when the booking agent asked if there was a special occasion, I told them and the hotel was nice enough to deliver a complimentary bottle of Prosecco to our room.It was a wonderful weekend, the accommodations and all of the staff were perfect.  We will stay there again.MoreShow less</t>
   </si>
   <si>
-    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 13, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 13, 2017</t>
-  </si>
-  <si>
     <t>I am a Marriott Reward member so when we decided to take a little mini staycation downtown Houston, I immediately went to the Marriott website and saw the SpringHill Suites location.  This location was perfect for us.  It was close to a lot of places and never more than a few $$ uber ride to other places we wanted to go.As it was also the weekend prior to my husbands  birthday, when the booking agent asked if there was a special occasion, I told them and the hotel was nice enough to deliver a complimentary bottle of Prosecco to our room.It was a wonderful weekend, the accommodations and all of the staff were perfect.  We will stay there again.More</t>
   </si>
   <si>
@@ -792,6 +1214,48 @@
     <t>Loved having a hotel blocks away from the wedding reception in market square. The hotel is new and lovely in decor, all parking is valet shared among the attached 3 Marriott Properties and the free breakfast is satisfactory.  The spacious room met our needs. The downside is the slowness of the elevators. It seems there needs to be an additional bank of elevecators to carry the load. During  checkout Sunday morning we waited for the 8th elevator before we were able to load.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r498044879-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498044879</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and friendly stay</t>
+  </si>
+  <si>
+    <t>Nice size room with twin double beds and a pull out couch.All the front desk staff were so friendly and efficient. They were helpful and know the area well.The pool was very good also.Not too far from convention center and ballpark.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Nice size room with twin double beds and a pull out couch.All the front desk staff were so friendly and efficient. They were helpful and know the area well.The pool was very good also.Not too far from convention center and ballpark.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r498004573-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>498004573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Reunion </t>
+  </si>
+  <si>
+    <t>I cannot begin to say how great this hotel is.  The rooms were immaculate and the service was beyond excellent. We had 35+ people from all over the country for a three day event.  From check in to check out the experience was excellent.  Shelly at the front desk welcomes you with the biggest smile and so much warmth.  The conference area and breakfast area were perfect.  We highly recommend this hotel for your travel/business/conference needs!MoreShow less</t>
+  </si>
+  <si>
+    <t>I cannot begin to say how great this hotel is.  The rooms were immaculate and the service was beyond excellent. We had 35+ people from all over the country for a three day event.  From check in to check out the experience was excellent.  Shelly at the front desk welcomes you with the biggest smile and so much warmth.  The conference area and breakfast area were perfect.  We highly recommend this hotel for your travel/business/conference needs!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r496253006-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -849,9 +1313,6 @@
     <t>Hotel is connected to 2 other hotels and can be kind of confusing. Stayed in a Queen suite room was large and beds were very comfortable. Employees were very friendly. Breakfast was ok had a waffle maker, oatmeal, cereals, breads and muffins as well as some scrambled eggs and turkey sausage.Parking is $30 a night valet.In walking distance to Toyota center and other restaurants. There is a Starbucks connected to the hotel. Only thing really bothered me was the homeless population is extremely large so every time you walked out of the building there was someone asking for money or to buy them something to eat. Even had a man laying on the sidewalk in front of the hotel getting high.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 26, 2017</t>
   </si>
   <si>
@@ -861,6 +1322,57 @@
     <t>Hotel is connected to 2 other hotels and can be kind of confusing. Stayed in a Queen suite room was large and beds were very comfortable. Employees were very friendly. Breakfast was ok had a waffle maker, oatmeal, cereals, breads and muffins as well as some scrambled eggs and turkey sausage.Parking is $30 a night valet.In walking distance to Toyota center and other restaurants. There is a Starbucks connected to the hotel. Only thing really bothered me was the homeless population is extremely large so every time you walked out of the building there was someone asking for money or to buy them something to eat. Even had a man laying on the sidewalk in front of the hotel getting high.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r484759725-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>484759725</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Roomy business suite</t>
+  </si>
+  <si>
+    <t>This was a surprisingly good find in downtown Houston. Modern decor, roomy bedroom/study combo with free wifi, a sleek bathroom and a closet. Okay, so the coffeemaker didn't work (grrrhhh) and I left for the day's events before the free breakfast, but the hotel was about perfect for a two-night business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 17, 2017</t>
+  </si>
+  <si>
+    <t>This was a surprisingly good find in downtown Houston. Modern decor, roomy bedroom/study combo with free wifi, a sleek bathroom and a closet. Okay, so the coffeemaker didn't work (grrrhhh) and I left for the day's events before the free breakfast, but the hotel was about perfect for a two-night business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r480248040-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480248040</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Clean updated hotel</t>
+  </si>
+  <si>
+    <t>This was our first stay in Houston. This is a great central location hotel, steps away from the train. Attentive service, good breakfast buffet, adequate work out room. I guess my only issue was the shared pool with the attached hotel, it was COLD in April. The gulf was warmer when we got there. I'm sure it will warm up by August. My daughter's first words were, "Where's their hot tub?" Sorry, no hot tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2017</t>
+  </si>
+  <si>
+    <t>This was our first stay in Houston. This is a great central location hotel, steps away from the train. Attentive service, good breakfast buffet, adequate work out room. I guess my only issue was the shared pool with the attached hotel, it was COLD in April. The gulf was warmer when we got there. I'm sure it will warm up by August. My daughter's first words were, "Where's their hot tub?" Sorry, no hot tub.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r476527549-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -901,9 +1413,6 @@
   </si>
   <si>
     <t>We stayed at the hotel for 2 nights, stayed in room 1604.  The location was very good for us, the hotel is valet only so we pretty much parked the car there and took Uber everywhere we went, was convenient for us to do that.  The breakfast was ok, just as a note during the weekend the book in the room says breakfast until 11am but it is wrong breakfast ends at 10:30.  The front desk staff when we checked in were very friendly.  Would stay here again.  There is a pool and fitness center but we didn't use it.MoreShow less</t>
-  </si>
-  <si>
-    <t>April 2017</t>
   </si>
   <si>
     <t>We stayed at the hotel for 2 nights, stayed in room 1604.  The location was very good for us, the hotel is valet only so we pretty much parked the car there and took Uber everywhere we went, was convenient for us to do that.  The breakfast was ok, just as a note during the weekend the book in the room says breakfast until 11am but it is wrong breakfast ends at 10:30.  The front desk staff when we checked in were very friendly.  Would stay here again.  There is a pool and fitness center but we didn't use it.More</t>
@@ -937,6 +1446,54 @@
 Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.
 Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).
 Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of...Picked the SpringHill Suites based on reviews and location as it is within walking distance of Minute Maid Park for a ballgame. You can tell that the whole hotel is relatively new based on its appearance. It is in an old renovated building that also has a Courtyard on one side and Residence Inn on the other and they are all serviced by the same Valet. Pool - Did not actually use the pool but walked to it. It is an outdoor pool on the 3rd floor. Staying in the SpringHill Suites you have to walk through the Courtyard to get to it as they share a pool.Gym - On the 11th floor of the SpringHill Suites (Courtyard has their own gym, not sure about Residence Inn). Much larger than some hotels. Had 3 treadmills I believe and a couple benches. Plenty of room to do floor exercises if you wanted to. Large TV with remote available on the one side of the gym and the treadmills have their own tvs attached. TVs worked perfectly (which is not always the case in hotels).Room - Stayed in a king room with sofa bed (did not use). Room was very nice and modern. Only thing I didn't like is that the bathroom has a sliding door with the majority of it being a frosted glass. If you have someone in the room that uses the bathroom in the middle of the night, or if people like to sleep in while others get up, the bathroom light shines through the door and illuminates the room. Breakfast - Breakfast is on the 2nd floor and had much more variety than some other hotels (scones, muffins, breads, fruit, yogurt, cereal, eggs, sausage, make your own waffle). Eating area is relatively large but we were in town when an Anime convention was happening and the eating area was filled up so we just returned to the room. Only suggestion for the buffet is to possibly move the toaster to a different location as the line got bogged down as people tried to toast their bread and english muffins. It created a very long line that was not moving even though the majority of people didn't want to use the toaster.Would definitely recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r469748497-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469748497</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>If you do not likeA/C stay here</t>
+  </si>
+  <si>
+    <t>I am sweating in my room.. first off they have the type of A/C that SHUTS OFF WHEN YOU SLEEP-no movement in the room. This is awful. Then you set it to 65, it will not go below 72. Really? I asked for a fan and they brought me... see pictureMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>I am sweating in my room.. first off they have the type of A/C that SHUTS OFF WHEN YOU SLEEP-no movement in the room. This is awful. Then you set it to 65, it will not go below 72. Really? I asked for a fan and they brought me... see pictureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r469127535-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469127535</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Perfect location/ great service!</t>
+  </si>
+  <si>
+    <t>The location was perfect (walking distance/short uber to all great spots downtown) and the service (especially Carla) was top notch! Free breakfast was great too... Will definitely stay here again the next time we are in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>The location was perfect (walking distance/short uber to all great spots downtown) and the service (especially Carla) was top notch! Free breakfast was great too... Will definitely stay here again the next time we are in Houston!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r463922562-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
@@ -1022,6 +1579,57 @@
 -The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee,...I stayed at this hotel in February 2017 for a four day conference at the George R. Brown Convention Center. Hotels closer or connected to the convention center were sold out at the time I booked. Overall, I would gladly stay here again for any future downtown Houston stays and would recommend this hotel.Pros:-Location. The hotel is right in the heart of downtown Houston and is only seven blocks from the convention center which equates to a 12-15 minute walk. Note that everywhere you walk people will stop you to ask for money or food.-The hotel and room have modern style and decor. Staff were very kind and efficient.-The room itself is clean with a large comfortable bed and linens, a desk for working, microwave, mini fridge, and large bathroom with clean towels and fixtures.-Free breakfast at 06:00 and coffee in the lobby. There is a Starbucks one door over from the hotel entrance.-Within easy walking distance of several places to eat and downtown attractions as well as public transportation.-I don't know if this will apply to everyone but I had a very early flight and I was able to check into my room before noon that day without difficulty.-Fast free WiFi and good channel selection on the large TV.Cons:-The breakfast has quite a small selection. Options include four cereals, fruit, yogurt, lukewarm scrambled eggs, a waffle iron, juice, coffee, tea, muffin, bagel, and some breads. I have seen better assortments elsewhere.-Also on food, there is no room service. There is a Bistro that also serves the connecting hotels that I did not eat at. However, you are within easy walking distance of several places to eat downtown but note that most grab and go places close around 4:00 PM or so. There are many sit down restaurants open later though.-I was on the seventh floor on the inside of the tower with a lovely view of a cement wall.-There was some moderate noise of a hysterical screaming child running down the hall and slamming of adjacent room doors. There is very mild noise from the nearby Metro rail. Regardless, I slept soundly.-This did not apply to me but parking is valet only and carries the valet level rates.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r448297219-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448297219</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Clean, Convenient, Affordable</t>
+  </si>
+  <si>
+    <t>Great stay of the SpringHill Suites Downtown. Hotel is very nice and clean. Rooms are a nice size for a downtown hotel. The location downtown is great, right next to the MetroRail and downtown restaurants. Easy to access from the highway if you need to leave downtown. Breakfast was great. One thing to be aware of is it is a downtown hotel, so you do get the downtown street noise at times. Not very noticeable, but just a heads up.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 3, 2017</t>
+  </si>
+  <si>
+    <t>Great stay of the SpringHill Suites Downtown. Hotel is very nice and clean. Rooms are a nice size for a downtown hotel. The location downtown is great, right next to the MetroRail and downtown restaurants. Easy to access from the highway if you need to leave downtown. Breakfast was great. One thing to be aware of is it is a downtown hotel, so you do get the downtown street noise at times. Not very noticeable, but just a heads up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r445728835-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445728835</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Great place for stay</t>
+  </si>
+  <si>
+    <t>Near the Convention center and a lot of restaurants. Great place for stay. People from the Hotel was friendly and very helpful. Breakfast area was very comfortable. The rooms are very big. The experience with this kind of hotel for me in USA was pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSHS, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2016</t>
+  </si>
+  <si>
+    <t>Near the Convention center and a lot of restaurants. Great place for stay. People from the Hotel was friendly and very helpful. Breakfast area was very comfortable. The rooms are very big. The experience with this kind of hotel for me in USA was pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r436001720-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1082,6 +1690,45 @@
     <t>Enjoyed staying at this hotel and walking to the Toyota Center for a concert.  There were numerous restaurants within walking distance as well.  Expect to pay $17 for self parking or $30 for valet due to the fact that you are downtown and parking is very limited.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r433893880-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433893880</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>Nice - Clean and Close</t>
+  </si>
+  <si>
+    <t>Just down Dallas from the Brown Convention Center, the Springhill Suites are a nice way to spend a business trip.  Clean Room, nicely appointed, daily breakfast, and fast elevators.  About 4 blocks of walking gets you to the convention center and avoids the need for driving.  There is a Starbucks location attached to the building plus onsite bistro, so meals and beverages are covered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r433810939-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433810939</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Great stay, but prices too high!</t>
+  </si>
+  <si>
+    <t>As far as Marriott properties go, this one was well maintained with great facilities and very helpful staff. It just felt like the prices were way out of whack even with a conference ongoing downtown (avg rates of 520 dollars a night mid-week!!), hence my three star rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>HoustonSHS, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded November 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 3, 2016</t>
+  </si>
+  <si>
+    <t>As far as Marriott properties go, this one was well maintained with great facilities and very helpful staff. It just felt like the prices were way out of whack even with a conference ongoing downtown (avg rates of 520 dollars a night mid-week!!), hence my three star rating.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r431664082-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1142,6 +1789,36 @@
     <t>The Good:  Two nights for business.  Friendly staff, appears newly renovated.  Nice accommodations.  Access to two gyms, plus pool/hot tub.  Starbucks on the first floor.The breakfast was excellent.  Good, large, modern space (both comfortable but could be working space); food ranged from scrambled eggs, to bagels, fruit and juices, cereal, etc.  A pleasant surprise.The bad:  Valet.  $30 per night seems steep, even for downtown Houston.  Plus, staff were a little curt.  It took 25+ minutes to retrieve my car at offpeak times, even when we called ahead.  Lastly, who changes the radio station in the car for the 30-foot drive into the garage?In sum:  Good hotel that we'd stay in again.  I'll try to skip the valet next time.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r425429444-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425429444</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>Very impressed</t>
+  </si>
+  <si>
+    <t>This hotel met my 3 primary criteria for business travel... comfortable bed, clean room, and nice breakfast.  About a 30 min Uber ride to/from the airport.15 min walk to Minute Maid Park to watch the Astros.One thing to be aware of is the downtown scene near the hotel is pretty quiet after business hours which limited our dinner options which wasn't a big deal.  We were still able to find something.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r421553028-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>421553028</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>See the cubs !!!!!</t>
+  </si>
+  <si>
+    <t>Went to Houston to see C ubs vs Astros. Checked in Friday afternoon to a king suit room, very nice room ,2  room suit with a sofa bed . A 1.3 mile walk to ballpark , not a bad walk. Was hear for 2 'its. The breakfast was very good good choices .staff was very nice and helpful. Would do it agan.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r418274475-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1199,13 +1876,55 @@
     <t xml:space="preserve">My son is moving to Houston and we stayed here while apartment hunting.  Rate was good and I was pleasantly surprised by the rooms.  Very spacious and modern. Nice walk in shower, which was a sign that these rooms are relatively fresh and new  v older tub showers which you find in older properties. Very convenient for accessing midtown area and parking was easy - though just keep in mind valet parking is $30 per night. But probably the same at all downtown hotels.  I would definitely stay here again. Breakfast included too. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r403432651-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403432651</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Fine Hotel, but the Pool was Closed!</t>
+  </si>
+  <si>
+    <t>We were there in the heat of July, and the pool pump broke!  Our group had no access to the pool, and the hotel didn't offer any alternatives or any compensation.  This is unacceptable, in my opinion.Otherwise, the room was clean and the staff friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>We were there in the heat of July, and the pool pump broke!  Our group had no access to the pool, and the hotel didn't offer any alternatives or any compensation.  This is unacceptable, in my opinion.Otherwise, the room was clean and the staff friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r403303667-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403303667</t>
+  </si>
+  <si>
+    <t>Weekend Getaway</t>
+  </si>
+  <si>
+    <t>Decided to go to Houston to see the Rangers vs Astros baseball game and stayed here. The hotel is located less than a mile from Minute Maid Park and within walking distance of several restaurants/bars. The staff was great and the rooms were very comfortable and clean. Only one problem is the parking, 3 hotels sharing the same parking garage (valet parking only: $17 daily, $30 overnight), there is a self parking garage located a block away. Rail station located in front of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Decided to go to Houston to see the Rangers vs Astros baseball game and stayed here. The hotel is located less than a mile from Minute Maid Park and within walking distance of several restaurants/bars. The staff was great and the rooms were very comfortable and clean. Only one problem is the parking, 3 hotels sharing the same parking garage (valet parking only: $17 daily, $30 overnight), there is a self parking garage located a block away. Rail station located in front of hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r403259706-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
     <t>403259706</t>
-  </si>
-  <si>
-    <t>08/09/2016</t>
   </si>
   <si>
     <t>Decent hotel w/ good staff experiencing problems</t>
@@ -1215,15 +1934,6 @@
 The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic,...In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic, in-room coffee machine was missing parts and (therefore) inoperable. I don’t mean to complain, but the truth is: the confluence of these negative factors prevented me from enjoying a calm and restful visit. Next time I'll choose another place.MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 12, 2016</t>
-  </si>
-  <si>
-    <t>Responded August 12, 2016</t>
-  </si>
-  <si>
     <t>In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.
 The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic,...In Houston for business, I elected to stay at this downtown hotel. Let me begin by saying every member of the staff I met was courteous and helpful, including valets, concierge, and check-in desk personnel. My suite was clean and comfortable with nice, modern décor. Parking is expensive but safe. Each room comes with free hot breakfast, which looked good although I did not have time to sample. Certainly, I’ve stayed overnight in worse places. Unfortunately, I experienced a few problems. The whole area (streets and sidewalks) around the hotel = under construction. Springhill/Marriott cannot be blamed for the attendant hassles; it’s the City of Houston’s fault that the block is a dusty, disorderly scene. Nevertheless, hotel guests do bear the brunt of these inconveniences. Inside, I was disappointed that my 6th floor ice machine was out of service. Having retrieved ice from the 5th floor, I took the elevator back up, hoping to enjoy a cold drink in my suite while watching the Astros’ baseball game. Sadly, the large hotel room television reported “no signal” and was unusable. Strike two.The next morning, I was roused by a piercing alarm. Whether someone pulled a fire handle, walked out the wrong exit, or tired to force open a window I have no idea. What I do know is that the building was NOT on fire yet the unpleasant, incessant alarm rang for a full hour. Compounding this headache: my plastic, in-room coffee machine was missing parts and (therefore) inoperable. I don’t mean to complain, but the truth is: the confluence of these negative factors prevented me from enjoying a calm and restful visit. Next time I'll choose another place.More</t>
   </si>
@@ -1264,9 +1974,6 @@
     <t>First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left...First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left a tip for housekeeping each day and they never picked it up. 7. They never replaced the glasses or cups we used. 8. One morning I walked 1 step out of the door and a bum asked me for money - he was shooed away soon after but left a negative impression on me. And it was the morning! 9. Breakfast for 2 of our 3 days had cut up fresh fruit. What happened on the 3rd day? It was inconsistent with the bread products too. So, in a nutshell (not really), I would not stay here again. Spent 3 nights so far and 1 to go. Still no pool either.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded August 1, 2016</t>
   </si>
   <si>
@@ -1276,6 +1983,54 @@
     <t>First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left...First, let's start with the good: The staff was excellent. To name names: Michael and Derek at the front desk and Shirlie in Housekeeping. Thank you for going over and above. Also, the rooms are clean and spacious and the beds are comfortable. Now here's the bad: 1. Requested adjoining rooms and although I knew they weren't guaranteed, I had high hopes. I made a special call to request them and was told it was noted in my reservation. When we checked in, I come to find out, there are no double/queen adjoining rooms in the entire hotel. Well, why didn't you tell me that? 2. Check in time 4pm. Our room was not ready until 5pm (and I begged to get that!). 3. Pool was unusable the entire time with no update on when it would be fixed and no sign that it was broken. We picked this hotel for it's outdoor pool. (see photo) 4. Took a shower on my first morning to find out (in the middle of the shower) that housekeeping had put 2 conditioners in the bathroom instead of a shampoo and conditioner. So, sopping wet, I called housekeeping and waited for them to deliver a shampoo. = not a happy camper and morning delay. 5. bathroom has little counter space (see photo) and no where to put anything in the shower (see photo). 6. I guess this could be a positive but I left a tip for housekeeping each day and they never picked it up. 7. They never replaced the glasses or cups we used. 8. One morning I walked 1 step out of the door and a bum asked me for money - he was shooed away soon after but left a negative impression on me. And it was the morning! 9. Breakfast for 2 of our 3 days had cut up fresh fruit. What happened on the 3rd day? It was inconsistent with the bread products too. So, in a nutshell (not really), I would not stay here again. Spent 3 nights so far and 1 to go. Still no pool either.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r397744017-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397744017</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great but... </t>
+  </si>
+  <si>
+    <t>Nice hotel.  I am pretty loyal to Marriott properties.   Really great location.  Easy walk to Astros, theatres, lots of food amd booze.  Cool area of town...city being revitalized Here is downside...staff not very helpful.  Never even mentioned my elite status on rewards while other properties will usually offer a bottle of water or something...Here is a near deal breaker...had car in valet parking..needed it twice while there and then to check out and it took a minimum of 20 minutes each time with the worst being check out on Sunday July 24...took almost thirty minutes.  They do not accept "call downs" from room either,  you have to go to valet stand!Rooftop pool...plus feature too.If you go check out odd little grocery store across Street near light rail stop.MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Nice hotel.  I am pretty loyal to Marriott properties.   Really great location.  Easy walk to Astros, theatres, lots of food amd booze.  Cool area of town...city being revitalized Here is downside...staff not very helpful.  Never even mentioned my elite status on rewards while other properties will usually offer a bottle of water or something...Here is a near deal breaker...had car in valet parking..needed it twice while there and then to check out and it took a minimum of 20 minutes each time with the worst being check out on Sunday July 24...took almost thirty minutes.  They do not accept "call downs" from room either,  you have to go to valet stand!Rooftop pool...plus feature too.If you go check out odd little grocery store across Street near light rail stop.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r396294691-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>396294691</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Good use of space</t>
+  </si>
+  <si>
+    <t>Location:  Around the corner from the Houston Police station.  Construction around the hotel, due to Super Bowl arriving in February 2017.  Be careful of where you walk.Lobby/Reception:  Building may have been a former apartment building at one time.  Now it shares the entrance with the Courtyard by Marriott.  The Residence Inn has a separate entrance.Room:  Soft relaxing color palette.  Good decision to install carpet squares.  AC is very quiet – does not hum.  My room faced the NE corner – Dallas and Main streets.Bathroom:  I am a big fan of the shower stall and the sink basin is the right height – not necessary to lean over.  And a big plus in having the Paul Mitchell product line.Pros:  Ample charging station throughout the room :)Cons:  Water dripping from the shower door fell onto the wood laminate floor.  Now for the worst part – found blond colored hair follicles located at the bottom of the bed sheet.  Left from the dryer or the person making the bed?  Either way – yuk!MoreShow less</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2016</t>
+  </si>
+  <si>
+    <t>Location:  Around the corner from the Houston Police station.  Construction around the hotel, due to Super Bowl arriving in February 2017.  Be careful of where you walk.Lobby/Reception:  Building may have been a former apartment building at one time.  Now it shares the entrance with the Courtyard by Marriott.  The Residence Inn has a separate entrance.Room:  Soft relaxing color palette.  Good decision to install carpet squares.  AC is very quiet – does not hum.  My room faced the NE corner – Dallas and Main streets.Bathroom:  I am a big fan of the shower stall and the sink basin is the right height – not necessary to lean over.  And a big plus in having the Paul Mitchell product line.Pros:  Ample charging station throughout the room :)Cons:  Water dripping from the shower door fell onto the wood laminate floor.  Now for the worst part – found blond colored hair follicles located at the bottom of the bed sheet.  Left from the dryer or the person making the bed?  Either way – yuk!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r396004020-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +2082,50 @@
     <t>Unlike other SpringHill Suites, this one in Downtown Houston has large, square rooms with plenty of space for four. Breakfast is more diverse than traditional hotel fare (welcome surprise), and the gym is sufficient. The SpringHill shares the same property with other Marriott hotels (unusual) and the pool is shared access. Expect to pay to park due to the location. We stayed on a weekend and the area is very quiet as this is the business district.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r375223512-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375223512</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>One of our BEST hotel experiences!</t>
+  </si>
+  <si>
+    <t>Our soccer team stayed at this hotel. We usually stay at Springhill Suites; some are quite good, some are okay, others not so much. This one was fantastic!
+This hotel looked like it was recently remodeled. It was beautifully decorated and super clean, everywhere.  While I appreciate all the prettiness, I'm more picky about the rest of the hotel experience - noise level, comfort, and ability to get a good night's sleep.
+Best things about this hotel:  Very well insulated for sound; spacious rooms; central air (vents up high near the door rather than AC unit down low by the window - since cold air falls it was way better &amp; more even cooling!); *real* scrambled eggs for breakfast!   (most places have only grains / high-carb foods or FAKE eggs! - our athletes especially need nutritious start to their day, not filler foods)
+We ended up with a room for the disabled and it was really spacious, with a huge bathroom; there was no tub, but just a large shower that had a floor with no lip for wheelchair access (size was nice, except the floor grading wasn't done well - instead of the water flowing to the drain, it leaked all over the bathroom).  Another parent said they also had a lot of space in their room, also, though their room was a regular room. So maybe all the rooms are this spacious?
+The design of this room was...Our soccer team stayed at this hotel. We usually stay at Springhill Suites; some are quite good, some are okay, others not so much. This one was fantastic!This hotel looked like it was recently remodeled. It was beautifully decorated and super clean, everywhere.  While I appreciate all the prettiness, I'm more picky about the rest of the hotel experience - noise level, comfort, and ability to get a good night's sleep.Best things about this hotel:  Very well insulated for sound; spacious rooms; central air (vents up high near the door rather than AC unit down low by the window - since cold air falls it was way better &amp; more even cooling!); *real* scrambled eggs for breakfast!   (most places have only grains / high-carb foods or FAKE eggs! - our athletes especially need nutritious start to their day, not filler foods)We ended up with a room for the disabled and it was really spacious, with a huge bathroom; there was no tub, but just a large shower that had a floor with no lip for wheelchair access (size was nice, except the floor grading wasn't done well - instead of the water flowing to the drain, it leaked all over the bathroom).  Another parent said they also had a lot of space in their room, also, though their room was a regular room. So maybe all the rooms are this spacious?The design of this room was better than many others we've stayed in. (See photos) Instead of the usual long rectangle room in front of you as you walk in, this one had the bedroom area in front of the door (with beds a good 10 feet away tho), and the sitting area was almost a separate room (sans door) to the left. Each "room" had its own window. And with the bathroom off the sitting area instead of across from the beds, people sleeping on the beds were less disturbed at night when someone used the bathroom.  (Esp with those dratted frosted glass bathroom doors!). The sitting area was large, also. Oh, and there were 2 tvs, one in each 'room', a nice plus. The beds were very comfortable, they had the usual small microwave, single serve coffee maker, and small fridge (but I don't get why they have those awkwardly placed, immovable shelves that prevent customers from standing a simple one gallon container of water upright!)Though we had two windows, the view was dismal - just facing other windows about 30 feet away. So if a view matters to you, ask which rooms might have a good view.All in all, it was an extremely comfortable and QUIET hotel stay - even with teen athletes around.  Excellent breakfast (well, there was no fruit this time??)  and courteous staff topped it off to be a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Our soccer team stayed at this hotel. We usually stay at Springhill Suites; some are quite good, some are okay, others not so much. This one was fantastic!
+This hotel looked like it was recently remodeled. It was beautifully decorated and super clean, everywhere.  While I appreciate all the prettiness, I'm more picky about the rest of the hotel experience - noise level, comfort, and ability to get a good night's sleep.
+Best things about this hotel:  Very well insulated for sound; spacious rooms; central air (vents up high near the door rather than AC unit down low by the window - since cold air falls it was way better &amp; more even cooling!); *real* scrambled eggs for breakfast!   (most places have only grains / high-carb foods or FAKE eggs! - our athletes especially need nutritious start to their day, not filler foods)
+We ended up with a room for the disabled and it was really spacious, with a huge bathroom; there was no tub, but just a large shower that had a floor with no lip for wheelchair access (size was nice, except the floor grading wasn't done well - instead of the water flowing to the drain, it leaked all over the bathroom).  Another parent said they also had a lot of space in their room, also, though their room was a regular room. So maybe all the rooms are this spacious?
+The design of this room was...Our soccer team stayed at this hotel. We usually stay at Springhill Suites; some are quite good, some are okay, others not so much. This one was fantastic!This hotel looked like it was recently remodeled. It was beautifully decorated and super clean, everywhere.  While I appreciate all the prettiness, I'm more picky about the rest of the hotel experience - noise level, comfort, and ability to get a good night's sleep.Best things about this hotel:  Very well insulated for sound; spacious rooms; central air (vents up high near the door rather than AC unit down low by the window - since cold air falls it was way better &amp; more even cooling!); *real* scrambled eggs for breakfast!   (most places have only grains / high-carb foods or FAKE eggs! - our athletes especially need nutritious start to their day, not filler foods)We ended up with a room for the disabled and it was really spacious, with a huge bathroom; there was no tub, but just a large shower that had a floor with no lip for wheelchair access (size was nice, except the floor grading wasn't done well - instead of the water flowing to the drain, it leaked all over the bathroom).  Another parent said they also had a lot of space in their room, also, though their room was a regular room. So maybe all the rooms are this spacious?The design of this room was better than many others we've stayed in. (See photos) Instead of the usual long rectangle room in front of you as you walk in, this one had the bedroom area in front of the door (with beds a good 10 feet away tho), and the sitting area was almost a separate room (sans door) to the left. Each "room" had its own window. And with the bathroom off the sitting area instead of across from the beds, people sleeping on the beds were less disturbed at night when someone used the bathroom.  (Esp with those dratted frosted glass bathroom doors!). The sitting area was large, also. Oh, and there were 2 tvs, one in each 'room', a nice plus. The beds were very comfortable, they had the usual small microwave, single serve coffee maker, and small fridge (but I don't get why they have those awkwardly placed, immovable shelves that prevent customers from standing a simple one gallon container of water upright!)Though we had two windows, the view was dismal - just facing other windows about 30 feet away. So if a view matters to you, ask which rooms might have a good view.All in all, it was an extremely comfortable and QUIET hotel stay - even with teen athletes around.  Excellent breakfast (well, there was no fruit this time??)  and courteous staff topped it off to be a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r374581654-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374581654</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Restfull sleep and great breakfast with REAL EGGS!</t>
+  </si>
+  <si>
+    <t>This place was extremely nice and offered great amenities for the business traveler. Its downtown and convenient to the downtown businesses. Very nice and clean and crisp rooms and the staff was very friendly and helpful. The breakfast was outstanding with REAL scrambled eggs!!!!! Lots of Marriots are putting out terrible reconstituted nasty eggs but these were real and they were good!  Thank you again!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r371684035-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1342,9 +2141,6 @@
     <t>Stayed 9 nights during a convention, comfortable bed &amp; reasonably well appointed room. Hotel is in the same building as Marriot &amp; Residence Inn and shares some facilities. No restaurant but the bar serves simple food until 10 - not a problem because the immediate Downtown area has a range of bars &amp; eating within walking distance. Tram stops almost outside &amp; visit to mid-town area for evenings and to other amenities was simple. Valet parking $30/day.Breakfast was only simple buffet with plastic knives etc (scrambled eggs were woeful). Staff were very helpful &amp; pleasant. Lifts were slow &amp; noisy.All in all not bad for a low-mid range hotel but watch out for Convention price $375/night ! - usually 180ish.MoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>CYSHSIndy, Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded May 12, 2016</t>
   </si>
   <si>
@@ -1393,6 +2189,42 @@
     <t>The SpringHill Suites Houston Downtown/Convention Center, is a nice to stay in Houston , if you are in the Downtown area.  The staff were very friendly: Michael, Nigel, Angel, and Debbie.  The room were a nice size and we could move around comfortably.  The beds were very firm and we slept very well.  Breakfast was really, each day there was a different entre, and all of the normal breakfast goodies.  The staff that took care of breakfast, was fast and efficient.  They made sure that there, when something ran out, they were quick to fill it.  The only problem, with the SpringHill Suites Houston, we found, were that there were not enough mirrors or light for the usage of those mirrors.  We were there for a convention and when we stay, there is always more two to three women in a room, when we are getting ready to get dressed, we all need mirrors.  Our room only had two mirrors, 1. in the bathroom and 1 on the closet door, where there was no light.  Aside from that, we enjoyed our stay at this hotel.  We will be back in Houston in 4 years, maybe the mirror situation will be fixed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r367344925-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367344925</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Quick Trip - centrally located</t>
+  </si>
+  <si>
+    <t>I had a one day business trip and didn't want to be to far out from the city.  Booked this with a friend whom is a loyal Marriott frequent traveler.  The room was clean, in order and honestly nothing special to say other than the staff was extremely friendly. Wish the bar that is connected to other Marriott hotels was opened earlier, as they missed out on quite a bit of business from patrons other than ourselves that were sent to other restaurants in the area.  Seems like a loss of revenue, because once you leave to another bar the chances of returning are slim. Overall - for the room it's self a bit over priced, but that's price in the big city.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had a one day business trip and didn't want to be to far out from the city.  Booked this with a friend whom is a loyal Marriott frequent traveler.  The room was clean, in order and honestly nothing special to say other than the staff was extremely friendly. Wish the bar that is connected to other Marriott hotels was opened earlier, as they missed out on quite a bit of business from patrons other than ourselves that were sent to other restaurants in the area.  Seems like a loss of revenue, because once you leave to another bar the chances of returning are slim. Overall - for the room it's self a bit over priced, but that's price in the big city.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r364045234-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364045234</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Staff are the stars here!</t>
+  </si>
+  <si>
+    <t>Staying 2 nights here for business, room is very comfortable with everything one could need. Price was reasonable considering the area and central location. Pleasantly surprised to find plates and plastic ware in microwave (sometimes its the little details!), especially since everything around here closes at 10 and I had to resort to microwave pizza at the store downstairs for dinner. However, the real stars are the staff here. Everyone I have encountered has provided some of the best customer service of any hotel I've stayed in. By far though I have to give kudos to the gentleman that was working the front desk when our group checked in. I wish I had his name, but on our arrival he was dealing with an extremely difficult customer, yet he remained calm and valiantly attempted to difuse the situation. He finally had to persuade said customer to wait and allow him to check our group in, all the while showing the utmost professionalism. I would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Staying 2 nights here for business, room is very comfortable with everything one could need. Price was reasonable considering the area and central location. Pleasantly surprised to find plates and plastic ware in microwave (sometimes its the little details!), especially since everything around here closes at 10 and I had to resort to microwave pizza at the store downstairs for dinner. However, the real stars are the staff here. Everyone I have encountered has provided some of the best customer service of any hotel I've stayed in. By far though I have to give kudos to the gentleman that was working the front desk when our group checked in. I wish I had his name, but on our arrival he was dealing with an extremely difficult customer, yet he remained calm and valiantly attempted to difuse the situation. He finally had to persuade said customer to wait and allow him to check our group in, all the while showing the utmost professionalism. I would definitely stay again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r363007029-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1457,6 +2289,45 @@
   </si>
   <si>
     <t>Went for a quick business meeting, the courtyard, Fairfield and Springhill are all in the same building...huh? But anyways the price was good, the room was nice, updated etc, and even with a lot of construction going on it was quiet for sleeping. Would recommend. Starbucks right outside as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r352946710-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352946710</t>
+  </si>
+  <si>
+    <t>03/04/2016</t>
+  </si>
+  <si>
+    <t>Nice, new property, great rooms</t>
+  </si>
+  <si>
+    <t>Front desk staff was extremely friendly and helpful.  The rooms were spacious and well appointed; fixtures and furnishings are very modern.  Location can't be beat in the heart of downtown Houston.   Free breakfast was of the "get what you pay for" variety- although I will say the powdered eggs were surprisingly edible, the orange juice made Tang taste like the real deal.  All in all a great property and a good night's sleep.  What more can you ask for?MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff was extremely friendly and helpful.  The rooms were spacious and well appointed; fixtures and furnishings are very modern.  Location can't be beat in the heart of downtown Houston.   Free breakfast was of the "get what you pay for" variety- although I will say the powdered eggs were surprisingly edible, the orange juice made Tang taste like the real deal.  All in all a great property and a good night's sleep.  What more can you ask for?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r341506988-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341506988</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel in downtown Houston</t>
+  </si>
+  <si>
+    <t>The hotel is in the center of Houston downtown.  Very convenient location.  The parking is expensive due to its location.  The room is very clean.  Wifi signal is good.  Due to holiday season, the breakfast was located on Residence Inn side.  Overall it's a good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in the center of Houston downtown.  Very convenient location.  The parking is expensive due to its location.  The room is very clean.  Wifi signal is good.  Due to holiday season, the breakfast was located on Residence Inn side.  Overall it's a good hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r340300226-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
@@ -1500,9 +2371,6 @@
 If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is...Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is one of the streets that borders this hotel. Having grown up in Toronto, I wasn't phased by this, but some people might find it a bit hard to deal with. There are lots of police in the area, and they have neighbourhood greeters who can help you with directions, give you a map of the downtown area etc although it was recommended to me as a solo traveler that I shouldn't be walking around alone after 9 p.m. so I heeded that advice. This hotel did the job for my business trip, but I can't say that they went above and beyond (hence the average rating).MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. 
 Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.
 If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is...Traveled to Houston TX on business Dec. 2015 and stayed here. It can be a little tricky to locate the entrance as there are multiple Marriott properties on this block, but as long as you pay attention to the overhead signs, you can find it. There was a lot of construction going on across the street from the hotel so that in itself can make it a little confusing when looking for the entrance as one side of the courtyard driveway was blocked off. Rooms were clean, hotel staff was friendly and helpful when I asked for direction to the nearest drug store. If you are a light sleeper, make sure you ask for a room away from the elevators otherwise you'll hear them going up &amp; down all night. Be careful when closing the shower door to make sure it closes all the way. I ended up with a puddle on the floor a few times. I did notice that they have hearing impaired room buzzers on some of the rooms, which is great to see. Continental breakfast was quite decent, I should have made more of an effort to take advantage of it. I did not check out the pool facilities.If you are visiting from a small town, or are unaware of downtown Houston, you may be surprised to know that there is large population of homeless people who tend to congregate on Main Street which is one of the streets that borders this hotel. Having grown up in Toronto, I wasn't phased by this, but some people might find it a bit hard to deal with. There are lots of police in the area, and they have neighbourhood greeters who can help you with directions, give you a map of the downtown area etc although it was recommended to me as a solo traveler that I shouldn't be walking around alone after 9 p.m. so I heeded that advice. This hotel did the job for my business trip, but I can't say that they went above and beyond (hence the average rating).More</t>
@@ -1520,6 +2388,51 @@
     <t>This was a nice hotel about 6 blocks from the convention center. I walked to the convention center each day and the only problem I encountered was the construction, which the hotel isn't responsible for. My room was very nice and spacious. Hotel staff was nice. Exercise room was small but definitely had enough to get a workout. Breakfast was good, but the coffee was not to my liking. Luckily, there is a Starbucks steps away for those who are coffee snobs.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r331528022-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331528022</t>
+  </si>
+  <si>
+    <t>12/08/2015</t>
+  </si>
+  <si>
+    <t>An adequate choice!</t>
+  </si>
+  <si>
+    <t>Found it a little disorienting to enter our hotel, only to find that it led into two others, each of which was a different Marriott property, all occupying much of that city block. Staff were friendly and welcoming, especially in the breakfast area. 
+Room was adequate for me as I was traveling alone but. The main problem for me was the air conditioning which was extremely loud, so I kept it off and that meant trying to sleep in a stuffy room since the windows didn't open at all. It also didn't help when my next door neighbors returned back to their room at 3 in the morning and their conversations easily drifted through the apparently thin walls for almost an hour. In short, sleep was hard to come by. Finally, nearby street construction led to the water being cut-off one evening until later the next morning, meaning no shower before I left for a meeting, and no flushing toilet anywhere in the building. 
+There was a small bar area next door to our wing that served basic restaurant fare, and a Starbucks on the ground floor, neither of which I used. Instead I visited the Green Street center a block over which had many restaurant choices. Otherwise I would caution anyone walking around at night as there seemed to be a lot of sometimes aggressive panhandlers in the area. 
+This is a downtown business area that is pretty dead...Found it a little disorienting to enter our hotel, only to find that it led into two others, each of which was a different Marriott property, all occupying much of that city block. Staff were friendly and welcoming, especially in the breakfast area. Room was adequate for me as I was traveling alone but. The main problem for me was the air conditioning which was extremely loud, so I kept it off and that meant trying to sleep in a stuffy room since the windows didn't open at all. It also didn't help when my next door neighbors returned back to their room at 3 in the morning and their conversations easily drifted through the apparently thin walls for almost an hour. In short, sleep was hard to come by. Finally, nearby street construction led to the water being cut-off one evening until later the next morning, meaning no shower before I left for a meeting, and no flushing toilet anywhere in the building. There was a small bar area next door to our wing that served basic restaurant fare, and a Starbucks on the ground floor, neither of which I used. Instead I visited the Green Street center a block over which had many restaurant choices. Otherwise I would caution anyone walking around at night as there seemed to be a lot of sometimes aggressive panhandlers in the area. This is a downtown business area that is pretty dead at night, not one I would normally stay in. However that was where the convention I attended was located so I had very little choice. I doubt I would return to this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Found it a little disorienting to enter our hotel, only to find that it led into two others, each of which was a different Marriott property, all occupying much of that city block. Staff were friendly and welcoming, especially in the breakfast area. 
+Room was adequate for me as I was traveling alone but. The main problem for me was the air conditioning which was extremely loud, so I kept it off and that meant trying to sleep in a stuffy room since the windows didn't open at all. It also didn't help when my next door neighbors returned back to their room at 3 in the morning and their conversations easily drifted through the apparently thin walls for almost an hour. In short, sleep was hard to come by. Finally, nearby street construction led to the water being cut-off one evening until later the next morning, meaning no shower before I left for a meeting, and no flushing toilet anywhere in the building. 
+There was a small bar area next door to our wing that served basic restaurant fare, and a Starbucks on the ground floor, neither of which I used. Instead I visited the Green Street center a block over which had many restaurant choices. Otherwise I would caution anyone walking around at night as there seemed to be a lot of sometimes aggressive panhandlers in the area. 
+This is a downtown business area that is pretty dead...Found it a little disorienting to enter our hotel, only to find that it led into two others, each of which was a different Marriott property, all occupying much of that city block. Staff were friendly and welcoming, especially in the breakfast area. Room was adequate for me as I was traveling alone but. The main problem for me was the air conditioning which was extremely loud, so I kept it off and that meant trying to sleep in a stuffy room since the windows didn't open at all. It also didn't help when my next door neighbors returned back to their room at 3 in the morning and their conversations easily drifted through the apparently thin walls for almost an hour. In short, sleep was hard to come by. Finally, nearby street construction led to the water being cut-off one evening until later the next morning, meaning no shower before I left for a meeting, and no flushing toilet anywhere in the building. There was a small bar area next door to our wing that served basic restaurant fare, and a Starbucks on the ground floor, neither of which I used. Instead I visited the Green Street center a block over which had many restaurant choices. Otherwise I would caution anyone walking around at night as there seemed to be a lot of sometimes aggressive panhandlers in the area. This is a downtown business area that is pretty dead at night, not one I would normally stay in. However that was where the convention I attended was located so I had very little choice. I doubt I would return to this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r328048742-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328048742</t>
+  </si>
+  <si>
+    <t>11/20/2015</t>
+  </si>
+  <si>
+    <t>A little tricky to find, but decent</t>
+  </si>
+  <si>
+    <t>For anyone planning to stay here, the hotel is in a combined building with a Courtyard and a Residence Inn. We got lost trying to find it, and GPS was of no help.  Most Springhill Suites I've stayed in are pretty much the same. This one has the benefit of a Starbuck's being located just outside the lobby, which was a nice touch.There is a small shopping center next door to the hotel with some good restaurants and bars, and there are more within a few blocks of the hotel.As for the hotel itself, the rooms are a bit smaller than what I'm used to, and the bathroom layout was different. The water in the shower was a brownish hue at first, so I had to run it for a minute or so to ensure it was clear. I suspect it was related to the construction on Dallas Street at the time, so I'm willing to forgive that.As for the breakfast, not much to write home about. The scrambled eggs seemed undercooked so I avoided those. The accommodations are decent, butMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>For anyone planning to stay here, the hotel is in a combined building with a Courtyard and a Residence Inn. We got lost trying to find it, and GPS was of no help.  Most Springhill Suites I've stayed in are pretty much the same. This one has the benefit of a Starbuck's being located just outside the lobby, which was a nice touch.There is a small shopping center next door to the hotel with some good restaurants and bars, and there are more within a few blocks of the hotel.As for the hotel itself, the rooms are a bit smaller than what I'm used to, and the bathroom layout was different. The water in the shower was a brownish hue at first, so I had to run it for a minute or so to ensure it was clear. I suspect it was related to the construction on Dallas Street at the time, so I'm willing to forgive that.As for the breakfast, not much to write home about. The scrambled eggs seemed undercooked so I avoided those. The accommodations are decent, butMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r327470289-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1556,9 +2469,6 @@
     <t>We recently spent the weekend at the Springhill Suites Hotel on Dallas t in downtown Houston. Our stay was wonderful. The room was spacious, clean and quiet in spite of a major road construction project that had closed Dallas St. The staff was friendly and helpful and the price was also quite reasonable considering the location. We were about 7 blocks from the George Brown Convention Center, a pleasant walk.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>We recently spent the weekend at the Springhill Suites Hotel on Dallas t in downtown Houston. Our stay was wonderful. The room was spacious, clean and quiet in spite of a major road construction project that had closed Dallas St. The staff was friendly and helpful and the price was also quite reasonable considering the location. We were about 7 blocks from the George Brown Convention Center, a pleasant walk.More</t>
   </si>
   <si>
@@ -1586,6 +2496,54 @@
     <t>Just checked out of the SpringHill Marriott and left very impressed!   The room was very clean and the staff extremely friendly and accommodating.  We stayed here for a medical trip to MD Anderson - all the hotels near the hospital were booked.  We didn't know exactly how long we would need to stay in Houston but booked the hotel for a full week.  This hotel is only 20 minutes from the hospital.The staff was extremely understanding and allowed us to check out several days early, upon being released from the hospital. Every time I entered the hotel, I was greeted by a friendly face.   The staff here really knows and understands customer service. Valet parking is $17/day or $35/overnight. Breakfast is on the 2nd floor and was pretty great, for continental breakfast! Starbucks and shopping is right next door. We know we'll be back in a few weeks and look forward to staying here again.Thanks to the staff here for making this a wonderful stay for the Ferguson's! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r318021376-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318021376</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>First customer in room!</t>
+  </si>
+  <si>
+    <t>I originally had a reservation at the Courtyard but was told they were oversold and would be put up at the Springhill Suites. At first I was a bit concerned but the hotel staff walked me through the lobby and cafe within the same building to the Springhill lobby. Apparently Marriott has co-located three of their properties (Courtyard, Residence Inn and Springhill Suites) in one massive building with Springhill being the newest.Everyone was so polite and cheerful when I entered or left the property that it was a shame I was only there for 2 nights.The room was laid out where I would have been very comfortable working in it separate from where I was sleeping which is a nice division. I have not stayed in a Springhill Suites property for a while but if they are modeling them based on this property, I may target them instead of Courtyards going forward.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I originally had a reservation at the Courtyard but was told they were oversold and would be put up at the Springhill Suites. At first I was a bit concerned but the hotel staff walked me through the lobby and cafe within the same building to the Springhill lobby. Apparently Marriott has co-located three of their properties (Courtyard, Residence Inn and Springhill Suites) in one massive building with Springhill being the newest.Everyone was so polite and cheerful when I entered or left the property that it was a shame I was only there for 2 nights.The room was laid out where I would have been very comfortable working in it separate from where I was sleeping which is a nice division. I have not stayed in a Springhill Suites property for a while but if they are modeling them based on this property, I may target them instead of Courtyards going forward.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r309476330-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309476330</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Lovleg</t>
+  </si>
+  <si>
+    <t>Great room, heaps of space really comfy beds. Amazing bathrooms, water pressure was amazing ! Staff were really friendly and helpful when didn't know where to go.Walking distance to public transport and great food and bars. Very pretty area, would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>CYSHSIndy, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Great room, heaps of space really comfy beds. Amazing bathrooms, water pressure was amazing ! Staff were really friendly and helpful when didn't know where to go.Walking distance to public transport and great food and bars. Very pretty area, would stay here again. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7355288-r307259928-SpringHill_Suites_Houston_Downtown_Convention_Center-Houston_Texas.html</t>
   </si>
   <si>
@@ -1599,15 +2557,6 @@
   </si>
   <si>
     <t>Staying here for the ASU vs aTm game.  Wonderful hotel and staff.  Staff goes out of there way to make your stay comfortable.  We had a leak on our shower (newly opened hotel) and the staff was right on top of it up to giving us the opportunity to move.  If I am ever in Houston again I will stay here again.Thank you for the experienceMoreShow less</t>
-  </si>
-  <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>CYSHSIndy, General Manager at SpringHill Suites Houston Downtown/Convention Center, responded to this reviewResponded September 17, 2015</t>
-  </si>
-  <si>
-    <t>Responded September 17, 2015</t>
   </si>
   <si>
     <t>Staying here for the ASU vs aTm game.  Wonderful hotel and staff.  Staff goes out of there way to make your stay comfortable.  We had a leak on our shower (newly opened hotel) and the staff was right on top of it up to giving us the opportunity to move.  If I am ever in Houston again I will stay here again.Thank you for the experienceMore</t>
@@ -2145,7 +3094,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2155,16 +3104,10 @@
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>3</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2212,10 +3155,14 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2226,13 +3173,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2248,7 +3195,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2257,25 +3204,25 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2287,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2309,55 +3256,55 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
         <v>81</v>
@@ -2397,33 +3344,27 @@
         <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>79</v>
-      </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2439,7 +3380,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -2448,22 +3389,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -2477,10 +3418,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2496,7 +3441,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2505,22 +3450,26 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
@@ -2530,10 +3479,14 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -2549,7 +3502,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2558,39 +3511,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="O9" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>95</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2606,7 +3569,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2615,43 +3578,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -2667,7 +3636,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2676,43 +3645,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>115</v>
       </c>
-      <c r="M11" t="n">
-        <v>3</v>
-      </c>
-      <c r="N11" t="s">
-        <v>116</v>
-      </c>
       <c r="O11" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>117</v>
-      </c>
-      <c r="X11" t="s">
-        <v>118</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -2728,7 +3699,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2737,25 +3708,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2766,14 +3737,10 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X12" t="s">
-        <v>118</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
@@ -2789,7 +3756,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2798,47 +3765,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>131</v>
       </c>
-      <c r="L13" t="s">
-        <v>132</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>125</v>
-      </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
@@ -2854,7 +3817,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2863,31 +3826,31 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2897,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Y14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -2919,7 +3882,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2928,26 +3891,22 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>116</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
@@ -2957,14 +3916,10 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>141</v>
-      </c>
-      <c r="X15" t="s">
-        <v>142</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -2980,7 +3935,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2989,22 +3944,22 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
         <v>53</v>
@@ -3018,14 +3973,10 @@
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>155</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
         <v>156</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -3065,34 +4016,28 @@
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>164</v>
-      </c>
-      <c r="X17" t="s">
-        <v>165</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -3108,58 +4053,48 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
         <v>167</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>168</v>
-      </c>
-      <c r="J18" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" t="s">
-        <v>170</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="n">
-        <v>4</v>
-      </c>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>172</v>
-      </c>
-      <c r="X18" t="s">
-        <v>173</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -3175,7 +4110,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3184,49 +4119,45 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>180</v>
-      </c>
-      <c r="X19" t="s">
-        <v>181</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -3242,7 +4173,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3251,49 +4182,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
@@ -3309,7 +4234,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3318,47 +4243,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -3374,58 +4295,56 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
         <v>196</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>197</v>
-      </c>
-      <c r="J22" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" t="s">
-        <v>199</v>
-      </c>
-      <c r="L22" t="s">
-        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3441,34 +4360,34 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
         <v>205</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
-        <v>206</v>
-      </c>
-      <c r="J23" t="s">
-        <v>207</v>
-      </c>
-      <c r="K23" t="s">
-        <v>208</v>
-      </c>
-      <c r="L23" t="s">
-        <v>209</v>
-      </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3480,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="X23" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -3502,56 +4421,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
         <v>213</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
-        <v>214</v>
-      </c>
-      <c r="J24" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" t="s">
-        <v>216</v>
-      </c>
-      <c r="L24" t="s">
-        <v>217</v>
-      </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X24" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
@@ -3567,58 +4482,56 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
         <v>221</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
-        <v>222</v>
-      </c>
-      <c r="J25" t="s">
-        <v>223</v>
-      </c>
-      <c r="K25" t="s">
-        <v>224</v>
-      </c>
-      <c r="L25" t="s">
-        <v>225</v>
-      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="X25" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
@@ -3634,58 +4547,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>225</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>226</v>
+      </c>
+      <c r="J26" t="s">
+        <v>227</v>
+      </c>
+      <c r="K26" t="s">
+        <v>228</v>
+      </c>
+      <c r="L26" t="s">
+        <v>229</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" t="s">
         <v>230</v>
-      </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
-      <c r="J26" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" t="s">
-        <v>233</v>
-      </c>
-      <c r="L26" t="s">
-        <v>234</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>226</v>
-      </c>
-      <c r="O26" t="s">
-        <v>87</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>235</v>
-      </c>
-      <c r="X26" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27">
@@ -3701,7 +4608,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3710,25 +4617,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O27" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3740,13 +4647,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="X27" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Y27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
@@ -3762,7 +4669,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3771,49 +4678,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="L28" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="Y28" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29">
@@ -3829,7 +4730,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3838,25 +4739,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3868,13 +4769,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30">
@@ -3890,7 +4791,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3899,43 +4800,49 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="s"/>
-      <c r="R30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -3951,52 +4858,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
         <v>268</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>269</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>270</v>
-      </c>
-      <c r="K31" t="s">
-        <v>271</v>
-      </c>
-      <c r="L31" t="s">
-        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="X31" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Y31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
@@ -4012,41 +4925,43 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
         <v>277</v>
       </c>
-      <c r="G32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L32" t="s">
         <v>278</v>
       </c>
-      <c r="J32" t="s">
-        <v>279</v>
-      </c>
-      <c r="K32" t="s">
-        <v>280</v>
-      </c>
-      <c r="L32" t="s">
-        <v>281</v>
-      </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4055,13 +4970,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="X32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33">
@@ -4077,56 +4992,58 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>283</v>
+      </c>
+      <c r="J33" t="s">
+        <v>284</v>
+      </c>
+      <c r="K33" t="s">
+        <v>285</v>
+      </c>
+      <c r="L33" t="s">
         <v>286</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>287</v>
-      </c>
-      <c r="J33" t="s">
-        <v>288</v>
-      </c>
-      <c r="K33" t="s">
-        <v>289</v>
-      </c>
-      <c r="L33" t="s">
-        <v>290</v>
-      </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="X33" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
@@ -4142,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4151,49 +5068,47 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J34" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="X34" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Y34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
@@ -4209,7 +5124,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4218,29 +5133,31 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J35" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
       <c r="S35" t="n">
         <v>5</v>
       </c>
@@ -4252,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="X35" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y35" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36">
@@ -4274,7 +5191,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4283,32 +5200,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J36" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="O36" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>4</v>
@@ -4317,13 +5234,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="X36" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y36" t="s">
         <v>307</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="37">
@@ -4339,7 +5256,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4348,49 +5265,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J37" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K37" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L37" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="O37" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="X37" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38">
@@ -4406,7 +5323,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4415,45 +5332,49 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K38" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O38" t="s">
-        <v>87</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39">
@@ -4469,34 +5390,34 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
         <v>329</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
-        <v>330</v>
-      </c>
-      <c r="J39" t="s">
-        <v>331</v>
-      </c>
-      <c r="K39" t="s">
-        <v>332</v>
-      </c>
-      <c r="L39" t="s">
-        <v>333</v>
-      </c>
       <c r="M39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4508,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="X39" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
@@ -4530,7 +5451,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4539,45 +5460,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O40" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>4</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>330</v>
+      </c>
+      <c r="X40" t="s">
+        <v>331</v>
+      </c>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
@@ -4593,48 +5512,56 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>338</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>339</v>
+      </c>
+      <c r="J41" t="s">
+        <v>340</v>
+      </c>
+      <c r="K41" t="s">
+        <v>341</v>
+      </c>
+      <c r="L41" t="s">
         <v>342</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
-        <v>343</v>
-      </c>
-      <c r="J41" t="s">
-        <v>344</v>
-      </c>
-      <c r="K41" t="s">
-        <v>345</v>
-      </c>
-      <c r="L41" t="s">
-        <v>346</v>
-      </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="O41" t="s">
-        <v>70</v>
-      </c>
-      <c r="P41" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
       <c r="Q41" t="s"/>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>343</v>
+      </c>
+      <c r="X41" t="s">
+        <v>344</v>
+      </c>
       <c r="Y41" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42">
@@ -4650,41 +5577,47 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
         <v>347</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>348</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>349</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>350</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
         <v>351</v>
       </c>
-      <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="s">
-        <v>327</v>
-      </c>
       <c r="O42" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
-      <c r="S42" t="s"/>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
       <c r="T42" t="s"/>
-      <c r="U42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
@@ -4732,33 +5665,27 @@
         <v>359</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
         <v>360</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
+      <c r="R43" t="s"/>
       <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44">
@@ -4774,42 +5701,40 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
         <v>362</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>363</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>364</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>365</v>
       </c>
-      <c r="L44" t="s">
-        <v>366</v>
-      </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
         <v>360</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
-      </c>
-      <c r="P44" t="s"/>
-      <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
         <v>4</v>
       </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -4818,10 +5743,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>366</v>
+      </c>
+      <c r="X44" t="s">
+        <v>367</v>
+      </c>
       <c r="Y44" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="45">
@@ -4837,7 +5766,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4846,10 +5775,10 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J45" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K45" t="s">
         <v>371</v>
@@ -4858,37 +5787,37 @@
         <v>372</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="O45" t="s">
-        <v>87</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
       <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
+        <v>366</v>
+      </c>
+      <c r="X45" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y45" t="s">
         <v>373</v>
-      </c>
-      <c r="X45" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="46">
@@ -4904,31 +5833,31 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>375</v>
+      </c>
+      <c r="J46" t="s">
         <v>376</v>
       </c>
-      <c r="G46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H46" t="s">
-        <v>47</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>377</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>378</v>
       </c>
-      <c r="K46" t="s">
-        <v>379</v>
-      </c>
-      <c r="L46" t="s">
-        <v>380</v>
-      </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
@@ -4942,10 +5871,14 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>379</v>
+      </c>
+      <c r="X46" t="s">
+        <v>380</v>
+      </c>
       <c r="Y46" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47">
@@ -4961,7 +5894,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4970,34 +5903,34 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J47" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>386</v>
+        <v>313</v>
       </c>
       <c r="O47" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="P47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
         <v>4</v>
@@ -5040,22 +5973,22 @@
         <v>391</v>
       </c>
       <c r="J48" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="O48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5067,13 +6000,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="X48" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Y48" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49">
@@ -5089,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5098,47 +6031,43 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J49" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K49" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>402</v>
+        <v>313</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
+      <c r="R49" t="s"/>
       <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
+        <v>396</v>
+      </c>
+      <c r="X49" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y49" t="s">
         <v>403</v>
-      </c>
-      <c r="X49" t="s">
-        <v>404</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="50">
@@ -5154,34 +6083,34 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
         <v>406</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>407</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>408</v>
       </c>
-      <c r="K50" t="s">
-        <v>409</v>
-      </c>
-      <c r="L50" t="s">
-        <v>410</v>
-      </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="O50" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5192,10 +6121,14 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>409</v>
+      </c>
+      <c r="X50" t="s">
+        <v>410</v>
+      </c>
       <c r="Y50" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="51">
@@ -5211,7 +6144,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5220,43 +6153,41 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K51" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L51" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>416</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>409</v>
+      </c>
+      <c r="X51" t="s">
+        <v>410</v>
+      </c>
       <c r="Y51" t="s">
         <v>417</v>
       </c>
@@ -5298,30 +6229,28 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>423</v>
+      </c>
+      <c r="X52" t="s">
+        <v>424</v>
+      </c>
       <c r="Y52" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
@@ -5337,7 +6266,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5346,49 +6275,43 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="J53" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K53" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L53" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="O53" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
-      <c r="Q53" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>4</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="X53" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Y53" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54">
@@ -5404,7 +6327,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5413,49 +6336,39 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="J54" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K54" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L54" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
-      <c r="N54" t="s">
-        <v>437</v>
-      </c>
-      <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
       <c r="R54" t="s"/>
-      <c r="S54" t="n">
-        <v>4</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="X54" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="Y54" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55">
@@ -5471,7 +6384,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5480,34 +6393,32 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J55" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K55" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L55" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="O55" t="s">
-        <v>70</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
         <v>5</v>
@@ -5516,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="X55" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="Y55" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56">
@@ -5538,7 +6449,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5547,32 +6458,32 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="J56" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K56" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="L56" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O56" t="s">
-        <v>70</v>
-      </c>
-      <c r="P56" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
       <c r="R56" t="s"/>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
         <v>4</v>
@@ -5581,13 +6492,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="X56" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="Y56" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57">
@@ -5603,7 +6514,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5612,43 +6523,49 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="P57" t="s"/>
-      <c r="Q57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
       <c r="R57" t="s"/>
-      <c r="S57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="X57" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Y57" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
@@ -5664,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5673,47 +6590,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J58" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="K58" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="L58" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>465</v>
+        <v>395</v>
       </c>
       <c r="O58" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P58" t="s"/>
-      <c r="Q58" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="n">
-        <v>4</v>
-      </c>
+      <c r="U58" t="s"/>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>429</v>
+        <v>471</v>
       </c>
       <c r="X58" t="s">
-        <v>430</v>
+        <v>472</v>
       </c>
       <c r="Y58" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59">
@@ -5729,7 +6642,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5738,49 +6651,49 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="J59" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K59" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L59" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="O59" t="s">
         <v>53</v>
       </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
       <c r="R59" t="n">
         <v>5</v>
       </c>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="X59" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Y59" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60">
@@ -5796,7 +6709,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5805,45 +6718,47 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J60" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K60" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L60" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
-      <c r="S60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>487</v>
+      </c>
+      <c r="X60" t="s">
+        <v>488</v>
+      </c>
       <c r="Y60" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="61">
@@ -5859,7 +6774,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5868,45 +6783,47 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="J61" t="s">
         <v>484</v>
       </c>
       <c r="K61" t="s">
-        <v>265</v>
+        <v>492</v>
       </c>
       <c r="L61" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>480</v>
+        <v>448</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>487</v>
+      </c>
+      <c r="X61" t="s">
+        <v>488</v>
+      </c>
       <c r="Y61" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62">
@@ -5922,7 +6839,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5931,30 +6848,30 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="J62" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K62" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="O62" t="s">
-        <v>87</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
       <c r="R62" t="n">
         <v>5</v>
       </c>
@@ -5967,13 +6884,13 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="X62" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="Y62" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63">
@@ -5989,7 +6906,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5998,28 +6915,28 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="J63" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="K63" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L63" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="O63" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
@@ -6032,13 +6949,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="X63" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="Y63" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64">
@@ -6054,7 +6971,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6063,43 +6980,49 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="J64" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="K64" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L64" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
-      <c r="S64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="X64" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="Y64" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="65">
@@ -6115,7 +7038,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6124,43 +7047,2880 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="J65" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="K65" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L65" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="O65" t="s">
-        <v>80</v>
-      </c>
-      <c r="P65" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
       <c r="Q65" t="s"/>
-      <c r="R65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>514</v>
-      </c>
-      <c r="X65" t="s">
-        <v>515</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>516</v>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>527</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>528</v>
+      </c>
+      <c r="J66" t="s">
+        <v>529</v>
+      </c>
+      <c r="K66" t="s">
+        <v>530</v>
+      </c>
+      <c r="L66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>532</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>533</v>
+      </c>
+      <c r="X66" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>529</v>
+      </c>
+      <c r="K67" t="s">
+        <v>538</v>
+      </c>
+      <c r="L67" t="s">
+        <v>539</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>525</v>
+      </c>
+      <c r="O67" t="s">
+        <v>116</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>540</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>541</v>
+      </c>
+      <c r="J68" t="s">
+        <v>542</v>
+      </c>
+      <c r="K68" t="s">
+        <v>543</v>
+      </c>
+      <c r="L68" t="s">
+        <v>544</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>532</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>545</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>546</v>
+      </c>
+      <c r="J69" t="s">
+        <v>547</v>
+      </c>
+      <c r="K69" t="s">
+        <v>548</v>
+      </c>
+      <c r="L69" t="s">
+        <v>549</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>525</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>550</v>
+      </c>
+      <c r="X69" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>553</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>554</v>
+      </c>
+      <c r="J70" t="s">
+        <v>555</v>
+      </c>
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
+        <v>557</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>525</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>558</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>559</v>
+      </c>
+      <c r="J71" t="s">
+        <v>560</v>
+      </c>
+      <c r="K71" t="s">
+        <v>561</v>
+      </c>
+      <c r="L71" t="s">
+        <v>562</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>525</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>563</v>
+      </c>
+      <c r="X71" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>566</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>567</v>
+      </c>
+      <c r="J72" t="s">
+        <v>568</v>
+      </c>
+      <c r="K72" t="s">
+        <v>569</v>
+      </c>
+      <c r="L72" t="s">
+        <v>570</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>571</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>573</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>574</v>
+      </c>
+      <c r="J73" t="s">
+        <v>575</v>
+      </c>
+      <c r="K73" t="s">
+        <v>576</v>
+      </c>
+      <c r="L73" t="s">
+        <v>577</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>571</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>578</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>579</v>
+      </c>
+      <c r="J74" t="s">
+        <v>580</v>
+      </c>
+      <c r="K74" t="s">
+        <v>581</v>
+      </c>
+      <c r="L74" t="s">
+        <v>582</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>583</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>584</v>
+      </c>
+      <c r="J75" t="s">
+        <v>585</v>
+      </c>
+      <c r="K75" t="s">
+        <v>586</v>
+      </c>
+      <c r="L75" t="s">
+        <v>587</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>571</v>
+      </c>
+      <c r="O75" t="s">
+        <v>116</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>589</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>590</v>
+      </c>
+      <c r="J76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K76" t="s">
+        <v>592</v>
+      </c>
+      <c r="L76" t="s">
+        <v>593</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>571</v>
+      </c>
+      <c r="O76" t="s">
+        <v>125</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>594</v>
+      </c>
+      <c r="X76" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>597</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>598</v>
+      </c>
+      <c r="J77" t="s">
+        <v>599</v>
+      </c>
+      <c r="K77" t="s">
+        <v>600</v>
+      </c>
+      <c r="L77" t="s">
+        <v>601</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>571</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>602</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>603</v>
+      </c>
+      <c r="J78" t="s">
+        <v>604</v>
+      </c>
+      <c r="K78" t="s">
+        <v>605</v>
+      </c>
+      <c r="L78" t="s">
+        <v>606</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>607</v>
+      </c>
+      <c r="O78" t="s">
+        <v>62</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>608</v>
+      </c>
+      <c r="X78" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>611</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>612</v>
+      </c>
+      <c r="J79" t="s">
+        <v>604</v>
+      </c>
+      <c r="K79" t="s">
+        <v>613</v>
+      </c>
+      <c r="L79" t="s">
+        <v>614</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>615</v>
+      </c>
+      <c r="O79" t="s">
+        <v>125</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>608</v>
+      </c>
+      <c r="X79" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>604</v>
+      </c>
+      <c r="K80" t="s">
+        <v>619</v>
+      </c>
+      <c r="L80" t="s">
+        <v>620</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>615</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>608</v>
+      </c>
+      <c r="X80" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>622</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>623</v>
+      </c>
+      <c r="J81" t="s">
+        <v>604</v>
+      </c>
+      <c r="K81" t="s">
+        <v>624</v>
+      </c>
+      <c r="L81" t="s">
+        <v>625</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>615</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>626</v>
+      </c>
+      <c r="X81" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>630</v>
+      </c>
+      <c r="J82" t="s">
+        <v>631</v>
+      </c>
+      <c r="K82" t="s">
+        <v>632</v>
+      </c>
+      <c r="L82" t="s">
+        <v>633</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>607</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>634</v>
+      </c>
+      <c r="X82" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>637</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>638</v>
+      </c>
+      <c r="J83" t="s">
+        <v>639</v>
+      </c>
+      <c r="K83" t="s">
+        <v>640</v>
+      </c>
+      <c r="L83" t="s">
+        <v>641</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>607</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>642</v>
+      </c>
+      <c r="X83" t="s">
+        <v>643</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>645</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>646</v>
+      </c>
+      <c r="J84" t="s">
+        <v>647</v>
+      </c>
+      <c r="K84" t="s">
+        <v>648</v>
+      </c>
+      <c r="L84" t="s">
+        <v>649</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>607</v>
+      </c>
+      <c r="O84" t="s">
+        <v>245</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="s"/>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>650</v>
+      </c>
+      <c r="X84" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>653</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>654</v>
+      </c>
+      <c r="J85" t="s">
+        <v>655</v>
+      </c>
+      <c r="K85" t="s">
+        <v>656</v>
+      </c>
+      <c r="L85" t="s">
+        <v>657</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>607</v>
+      </c>
+      <c r="O85" t="s">
+        <v>125</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>659</v>
+      </c>
+      <c r="J86" t="s">
+        <v>660</v>
+      </c>
+      <c r="K86" t="s">
+        <v>661</v>
+      </c>
+      <c r="L86" t="s">
+        <v>662</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>663</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>665</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>666</v>
+      </c>
+      <c r="J87" t="s">
+        <v>667</v>
+      </c>
+      <c r="K87" t="s">
+        <v>668</v>
+      </c>
+      <c r="L87" t="s">
+        <v>669</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>607</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>670</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>671</v>
+      </c>
+      <c r="J88" t="s">
+        <v>672</v>
+      </c>
+      <c r="K88" t="s">
+        <v>673</v>
+      </c>
+      <c r="L88" t="s">
+        <v>674</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>675</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>677</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>678</v>
+      </c>
+      <c r="J89" t="s">
+        <v>679</v>
+      </c>
+      <c r="K89" t="s">
+        <v>680</v>
+      </c>
+      <c r="L89" t="s">
+        <v>681</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>675</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>682</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>683</v>
+      </c>
+      <c r="J90" t="s">
+        <v>684</v>
+      </c>
+      <c r="K90" t="s">
+        <v>685</v>
+      </c>
+      <c r="L90" t="s">
+        <v>686</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>675</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>687</v>
+      </c>
+      <c r="X90" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>690</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>691</v>
+      </c>
+      <c r="J91" t="s">
+        <v>692</v>
+      </c>
+      <c r="K91" t="s">
+        <v>693</v>
+      </c>
+      <c r="L91" t="s">
+        <v>694</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>695</v>
+      </c>
+      <c r="O91" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>687</v>
+      </c>
+      <c r="X91" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>697</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>698</v>
+      </c>
+      <c r="J92" t="s">
+        <v>699</v>
+      </c>
+      <c r="K92" t="s">
+        <v>700</v>
+      </c>
+      <c r="L92" t="s">
+        <v>701</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>695</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>687</v>
+      </c>
+      <c r="X92" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>703</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>704</v>
+      </c>
+      <c r="J93" t="s">
+        <v>705</v>
+      </c>
+      <c r="K93" t="s">
+        <v>706</v>
+      </c>
+      <c r="L93" t="s">
+        <v>707</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>695</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>687</v>
+      </c>
+      <c r="X93" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>709</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>710</v>
+      </c>
+      <c r="J94" t="s">
+        <v>711</v>
+      </c>
+      <c r="K94" t="s">
+        <v>712</v>
+      </c>
+      <c r="L94" t="s">
+        <v>713</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>695</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>687</v>
+      </c>
+      <c r="X94" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>715</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>716</v>
+      </c>
+      <c r="J95" t="s">
+        <v>717</v>
+      </c>
+      <c r="K95" t="s">
+        <v>718</v>
+      </c>
+      <c r="L95" t="s">
+        <v>719</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>695</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>687</v>
+      </c>
+      <c r="X95" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>721</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>722</v>
+      </c>
+      <c r="J96" t="s">
+        <v>723</v>
+      </c>
+      <c r="K96" t="s">
+        <v>724</v>
+      </c>
+      <c r="L96" t="s">
+        <v>725</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>726</v>
+      </c>
+      <c r="O96" t="s">
+        <v>62</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>727</v>
+      </c>
+      <c r="X96" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>730</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>731</v>
+      </c>
+      <c r="J97" t="s">
+        <v>732</v>
+      </c>
+      <c r="K97" t="s">
+        <v>733</v>
+      </c>
+      <c r="L97" t="s">
+        <v>734</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>735</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>687</v>
+      </c>
+      <c r="X97" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>737</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>738</v>
+      </c>
+      <c r="J98" t="s">
+        <v>739</v>
+      </c>
+      <c r="K98" t="s">
+        <v>740</v>
+      </c>
+      <c r="L98" t="s">
+        <v>741</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>735</v>
+      </c>
+      <c r="O98" t="s">
+        <v>116</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>687</v>
+      </c>
+      <c r="X98" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>743</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>744</v>
+      </c>
+      <c r="J99" t="s">
+        <v>745</v>
+      </c>
+      <c r="K99" t="s">
+        <v>746</v>
+      </c>
+      <c r="L99" t="s">
+        <v>747</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>748</v>
+      </c>
+      <c r="O99" t="s">
+        <v>62</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>687</v>
+      </c>
+      <c r="X99" t="s">
+        <v>688</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>750</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>751</v>
+      </c>
+      <c r="J100" t="s">
+        <v>752</v>
+      </c>
+      <c r="K100" t="s">
+        <v>753</v>
+      </c>
+      <c r="L100" t="s">
+        <v>754</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3</v>
+      </c>
+      <c r="N100" t="s">
+        <v>663</v>
+      </c>
+      <c r="O100" t="s">
+        <v>62</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>755</v>
+      </c>
+      <c r="X100" t="s">
+        <v>756</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>758</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>759</v>
+      </c>
+      <c r="J101" t="s">
+        <v>760</v>
+      </c>
+      <c r="K101" t="s">
+        <v>761</v>
+      </c>
+      <c r="L101" t="s">
+        <v>762</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>748</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>764</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>765</v>
+      </c>
+      <c r="J102" t="s">
+        <v>766</v>
+      </c>
+      <c r="K102" t="s">
+        <v>415</v>
+      </c>
+      <c r="L102" t="s">
+        <v>767</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>748</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>768</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>769</v>
+      </c>
+      <c r="J103" t="s">
+        <v>770</v>
+      </c>
+      <c r="K103" t="s">
+        <v>771</v>
+      </c>
+      <c r="L103" t="s">
+        <v>772</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>748</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>774</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>775</v>
+      </c>
+      <c r="J104" t="s">
+        <v>776</v>
+      </c>
+      <c r="K104" t="s">
+        <v>777</v>
+      </c>
+      <c r="L104" t="s">
+        <v>778</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>779</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>781</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>782</v>
+      </c>
+      <c r="J105" t="s">
+        <v>783</v>
+      </c>
+      <c r="K105" t="s">
+        <v>784</v>
+      </c>
+      <c r="L105" t="s">
+        <v>785</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>786</v>
+      </c>
+      <c r="O105" t="s">
+        <v>125</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>727</v>
+      </c>
+      <c r="X105" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>788</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>789</v>
+      </c>
+      <c r="J106" t="s">
+        <v>790</v>
+      </c>
+      <c r="K106" t="s">
+        <v>791</v>
+      </c>
+      <c r="L106" t="s">
+        <v>792</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>779</v>
+      </c>
+      <c r="O106" t="s">
+        <v>125</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>727</v>
+      </c>
+      <c r="X106" t="s">
+        <v>728</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>794</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>795</v>
+      </c>
+      <c r="J107" t="s">
+        <v>796</v>
+      </c>
+      <c r="K107" t="s">
+        <v>797</v>
+      </c>
+      <c r="L107" t="s">
+        <v>798</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>779</v>
+      </c>
+      <c r="O107" t="s">
+        <v>125</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>799</v>
+      </c>
+      <c r="X107" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>802</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>803</v>
+      </c>
+      <c r="J108" t="s">
+        <v>804</v>
+      </c>
+      <c r="K108" t="s">
+        <v>805</v>
+      </c>
+      <c r="L108" t="s">
+        <v>806</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>807</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>799</v>
+      </c>
+      <c r="X108" t="s">
+        <v>800</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>809</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>810</v>
+      </c>
+      <c r="J109" t="s">
+        <v>811</v>
+      </c>
+      <c r="K109" t="s">
+        <v>812</v>
+      </c>
+      <c r="L109" t="s">
+        <v>813</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>814</v>
+      </c>
+      <c r="O109" t="s">
+        <v>116</v>
+      </c>
+      <c r="P109" t="s"/>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="s"/>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>815</v>
+      </c>
+      <c r="X109" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>63588</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>818</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>819</v>
+      </c>
+      <c r="J110" t="s">
+        <v>820</v>
+      </c>
+      <c r="K110" t="s">
+        <v>821</v>
+      </c>
+      <c r="L110" t="s">
+        <v>822</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>814</v>
+      </c>
+      <c r="O110" t="s">
+        <v>116</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="s"/>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>815</v>
+      </c>
+      <c r="X110" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>823</v>
       </c>
     </row>
   </sheetData>
